--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\Desktop\CRM-Avi\templates\order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19995" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Низ!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$18:$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -242,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,25 +399,25 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -420,36 +428,36 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -458,11 +466,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -470,23 +478,23 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -494,10 +502,10 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -505,7 +513,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -513,14 +521,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,43 +536,43 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -572,14 +580,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,29 +596,29 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,9 +820,87 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -824,149 +910,71 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,7 +996,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1026,14 +1034,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1066,9 +1074,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1098,7 +1106,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1274,146 +1282,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="62" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="62" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="63" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="63" customWidth="1"/>
     <col min="9" max="9" width="7" style="63" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="63" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="63"/>
-    <col min="13" max="13" width="2.7109375" style="63" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="63" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="63" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="63" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="63"/>
+    <col min="13" max="13" width="2.6640625" style="63" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="63" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="63" customWidth="1"/>
     <col min="16" max="16" width="6" style="63" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="63" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="63" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" style="63" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="63" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" style="63" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="63" customWidth="1"/>
     <col min="21" max="21" width="8" style="63" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="63" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-    </row>
-    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="66" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+    </row>
+    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-    </row>
-    <row r="3" spans="1:22" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-    </row>
-    <row r="4" spans="1:22" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+    </row>
+    <row r="4" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="65" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="75">
+      <c r="T4" s="69">
         <v>330212</v>
       </c>
-      <c r="U4" s="76"/>
-      <c r="V4" s="77"/>
-    </row>
-    <row r="5" spans="1:22" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="71"/>
+      <c r="V4" s="80"/>
+    </row>
+    <row r="5" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -1432,16 +1440,16 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="35"/>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="65"/>
+      <c r="R5" s="79"/>
       <c r="S5" s="30"/>
       <c r="T5" s="36"/>
       <c r="U5" s="37"/>
       <c r="V5" s="38"/>
     </row>
-    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -1467,39 +1475,39 @@
       <c r="U6" s="40"/>
       <c r="V6" s="41"/>
     </row>
-    <row r="7" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="65" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
       <c r="S7" s="30"/>
       <c r="T7" s="39"/>
       <c r="U7" s="40"/>
       <c r="V7" s="41"/>
     </row>
-    <row r="8" spans="1:22" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+    <row r="8" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
       <c r="E8" s="43"/>
@@ -1516,48 +1524,48 @@
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="65"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="30"/>
       <c r="T8" s="39"/>
       <c r="U8" s="40"/>
       <c r="V8" s="41"/>
     </row>
-    <row r="9" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79" t="s">
+    <row r="9" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="35"/>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="65"/>
+      <c r="R9" s="79"/>
       <c r="S9" s="30"/>
       <c r="T9" s="45"/>
       <c r="U9" s="33"/>
       <c r="V9" s="46"/>
     </row>
-    <row r="10" spans="1:22" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+    <row r="10" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
@@ -1574,40 +1582,40 @@
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
       <c r="S10" s="30"/>
       <c r="T10" s="47"/>
       <c r="U10" s="30"/>
       <c r="V10" s="48"/>
     </row>
-    <row r="11" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
+    <row r="11" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="65" t="s">
+      <c r="Q11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="65"/>
+      <c r="R11" s="79"/>
       <c r="S11" s="30"/>
       <c r="T11" s="39"/>
       <c r="U11" s="40"/>
       <c r="V11" s="41"/>
     </row>
-    <row r="12" spans="1:22" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49"/>
       <c r="B12" s="50"/>
       <c r="C12" s="42"/>
@@ -1626,44 +1634,44 @@
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="71" t="s">
+      <c r="Q12" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="69"/>
-      <c r="S12" s="73"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="84"/>
       <c r="T12" s="39"/>
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
     </row>
-    <row r="13" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+    <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
       <c r="P13" s="51"/>
-      <c r="Q13" s="69" t="s">
+      <c r="Q13" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="69"/>
-      <c r="S13" s="73"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="84"/>
       <c r="T13" s="39"/>
       <c r="U13" s="40"/>
       <c r="V13" s="41"/>
     </row>
-    <row r="14" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="49"/>
       <c r="B14" s="50"/>
       <c r="C14" s="42"/>
@@ -1677,81 +1685,81 @@
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
       <c r="K14" s="43"/>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71" t="s">
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="39"/>
       <c r="U14" s="40"/>
       <c r="V14" s="41"/>
     </row>
-    <row r="15" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="30"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="84"/>
+      <c r="I15" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="73"/>
+      <c r="J15" s="84"/>
       <c r="K15" s="54"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
-      <c r="Q15" s="81" t="s">
+      <c r="Q15" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="82"/>
-      <c r="S15" s="83"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="87"/>
       <c r="T15" s="39"/>
       <c r="U15" s="40"/>
       <c r="V15" s="41"/>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="55"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="65" t="s">
+      <c r="P16" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
       <c r="S16" s="56"/>
       <c r="T16" s="39"/>
       <c r="U16" s="40"/>
       <c r="V16" s="41"/>
     </row>
-    <row r="17" spans="1:22" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -1775,59 +1783,59 @@
       <c r="U17" s="57"/>
       <c r="V17" s="57"/>
     </row>
-    <row r="18" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="75" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="75" t="s">
+      <c r="G18" s="71"/>
+      <c r="H18" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="75" t="s">
+      <c r="J18" s="71"/>
+      <c r="K18" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="75" t="s">
+      <c r="L18" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="77"/>
-      <c r="N18" s="75" t="s">
+      <c r="M18" s="80"/>
+      <c r="N18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="76"/>
-      <c r="P18" s="75" t="s">
+      <c r="O18" s="71"/>
+      <c r="P18" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="75" t="s">
+      <c r="Q18" s="71"/>
+      <c r="R18" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="85" t="s">
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="75" t="s">
+    <row r="19" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="58" t="s">
         <v>34</v>
       </c>
@@ -1837,39 +1845,39 @@
       <c r="G19" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="75"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="75" t="s">
+      <c r="K19" s="70"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="76"/>
-      <c r="T19" s="75" t="s">
+      <c r="S19" s="71"/>
+      <c r="T19" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="77"/>
-      <c r="V19" s="86"/>
-    </row>
-    <row r="20" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="80"/>
+      <c r="V19" s="76"/>
+    </row>
+    <row r="20" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
         <v>1</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="73">
         <v>2</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="58">
         <v>3</v>
       </c>
@@ -1891,67 +1899,32 @@
       <c r="K20" s="59">
         <v>9</v>
       </c>
-      <c r="L20" s="93">
+      <c r="L20" s="67">
         <v>10</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="93">
+      <c r="M20" s="68"/>
+      <c r="N20" s="67">
         <v>11</v>
       </c>
-      <c r="O20" s="94"/>
-      <c r="P20" s="93">
+      <c r="O20" s="68"/>
+      <c r="P20" s="67">
         <v>12</v>
       </c>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="93">
+      <c r="Q20" s="68"/>
+      <c r="R20" s="67">
         <v>13</v>
       </c>
-      <c r="S20" s="94"/>
-      <c r="T20" s="93">
+      <c r="S20" s="68"/>
+      <c r="T20" s="67">
         <v>14</v>
       </c>
-      <c r="U20" s="94"/>
+      <c r="U20" s="68"/>
       <c r="V20" s="60">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C11:O11"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="O2:V2"/>
     <mergeCell ref="A1:N3"/>
@@ -1968,6 +1941,41 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:O13"/>
     <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="R18:U18"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.19685039370078741" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
@@ -1982,19 +1990,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2006,17 +2014,17 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="113" t="s">
+      <c r="P1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="113"/>
+      <c r="Q1" s="100"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="12.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2042,7 +2050,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="25" t="s">
@@ -2060,19 +2068,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="8.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
+    <row r="4" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2096,17 +2104,17 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="98"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2122,7 +2130,7 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25" t="s">
@@ -2131,10 +2139,10 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="111"/>
+      <c r="H6" s="98"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2152,7 +2160,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2161,8 +2169,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2180,35 +2188,35 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-    </row>
-    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+    </row>
+    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2219,11 +2227,11 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="116" t="s">
+      <c r="L9" s="114"/>
+      <c r="M9" s="66" t="s">
         <v>70</v>
       </c>
       <c r="N9" s="18"/>
@@ -2232,24 +2240,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="101" t="s">
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2266,39 +2274,39 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107" t="s">
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="114"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="98" t="s">
+      <c r="P11" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-    </row>
-    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+    </row>
+    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2328,27 +2336,27 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
     </row>
-    <row r="13" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107" t="s">
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2358,7 +2366,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2380,43 +2388,43 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="98" t="s">
+      <c r="P14" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98" t="s">
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98" t="s">
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="98"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
+      <c r="V14" s="116"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="103" t="s">
+      <c r="K15" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2426,7 +2434,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="21"/>
@@ -2448,21 +2456,21 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="98" t="s">
+      <c r="P16" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98" t="s">
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98" t="s">
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="98"/>
-    </row>
-    <row r="17" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="116"/>
+    </row>
+    <row r="17" spans="1:22" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="15" t="s">
@@ -2484,21 +2492,28 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2512,20 +2527,13 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -251,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +366,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -626,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -739,18 +746,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,13 +764,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -805,9 +800,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,6 +818,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,10 +869,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -975,6 +994,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,144 +1304,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:V2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="61" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="62" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="63" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="63" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="63" customWidth="1"/>
-    <col min="9" max="9" width="7" style="63" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="63" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="63"/>
-    <col min="13" max="13" width="2.6640625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="63" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="63" customWidth="1"/>
-    <col min="16" max="16" width="6" style="63" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="63" customWidth="1"/>
-    <col min="19" max="19" width="3.1640625" style="63" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="63" customWidth="1"/>
-    <col min="21" max="21" width="8" style="63" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="63" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="57" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="7" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="58" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="58"/>
+    <col min="13" max="13" width="2.6640625" style="58" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="58" customWidth="1"/>
+    <col min="16" max="16" width="6" style="58" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="58" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="58" customWidth="1"/>
+    <col min="21" max="21" width="8" style="58" customWidth="1"/>
+    <col min="22" max="22" width="12" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="92" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
     </row>
     <row r="3" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
-      <c r="T3" s="83" t="s">
+      <c r="T3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
     </row>
     <row r="4" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="79" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="69">
+      <c r="T4" s="73">
         <v>330212</v>
       </c>
-      <c r="U4" s="71"/>
-      <c r="V4" s="80"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="84"/>
     </row>
     <row r="5" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
@@ -1440,14 +1462,14 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="35"/>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="79"/>
+      <c r="R5" s="83"/>
       <c r="S5" s="30"/>
       <c r="T5" s="36"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="38"/>
+      <c r="V5" s="64"/>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
@@ -1471,305 +1493,305 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="35"/>
       <c r="S6" s="30"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="41"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="65"/>
     </row>
     <row r="7" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="79" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
       <c r="S7" s="30"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="65"/>
     </row>
     <row r="8" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="79" t="s">
+      <c r="Q8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="79"/>
+      <c r="R8" s="83"/>
       <c r="S8" s="30"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="41"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
       <c r="P9" s="35"/>
-      <c r="Q9" s="79" t="s">
+      <c r="Q9" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="79"/>
+      <c r="R9" s="83"/>
       <c r="S9" s="30"/>
-      <c r="T9" s="45"/>
+      <c r="T9" s="43"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="46"/>
+      <c r="V9" s="66"/>
     </row>
     <row r="10" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
       <c r="S10" s="30"/>
-      <c r="T10" s="47"/>
+      <c r="T10" s="44"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="48"/>
+      <c r="V10" s="67"/>
     </row>
     <row r="11" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="79"/>
+      <c r="R11" s="83"/>
       <c r="S11" s="30"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="41"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="88" t="s">
+      <c r="Q12" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="89"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="41"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="65"/>
     </row>
     <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="89"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="41"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="65"/>
     </row>
     <row r="14" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="52" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="89" t="s">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="88" t="s">
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="41"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="65"/>
     </row>
     <row r="15" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="83" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="83" t="s">
+      <c r="H15" s="88"/>
+      <c r="I15" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="54"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
-      <c r="Q15" s="85" t="s">
+      <c r="Q15" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="86"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="41"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="65"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="77" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="55"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="41"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="65"/>
     </row>
     <row r="17" spans="1:22" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
@@ -1779,147 +1801,147 @@
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="68"/>
     </row>
     <row r="18" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="69" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="69" t="s">
+      <c r="G18" s="75"/>
+      <c r="H18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="69" t="s">
+      <c r="J18" s="75"/>
+      <c r="K18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="80"/>
-      <c r="N18" s="69" t="s">
+      <c r="M18" s="84"/>
+      <c r="N18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="71"/>
-      <c r="P18" s="69" t="s">
+      <c r="O18" s="75"/>
+      <c r="P18" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="69" t="s">
+      <c r="Q18" s="75"/>
+      <c r="R18" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="75" t="s">
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="79" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="58" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="59" t="s">
+      <c r="H19" s="73"/>
+      <c r="I19" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="70"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="69" t="s">
+      <c r="K19" s="74"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="71"/>
-      <c r="T19" s="69" t="s">
+      <c r="S19" s="75"/>
+      <c r="T19" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="80"/>
-      <c r="V19" s="76"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="80"/>
     </row>
     <row r="20" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59">
+      <c r="A20" s="55">
         <v>1</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="77">
         <v>2</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="58">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="54">
         <v>3</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="55">
         <v>4</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="54">
         <v>5</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="55">
         <v>6</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="55">
         <v>7</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="54">
         <v>8</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="55">
         <v>9</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="71">
         <v>10</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="67">
+      <c r="M20" s="72"/>
+      <c r="N20" s="71">
         <v>11</v>
       </c>
-      <c r="O20" s="68"/>
-      <c r="P20" s="67">
+      <c r="O20" s="72"/>
+      <c r="P20" s="71">
         <v>12</v>
       </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="67">
+      <c r="Q20" s="72"/>
+      <c r="R20" s="71">
         <v>13</v>
       </c>
-      <c r="S20" s="68"/>
-      <c r="T20" s="67">
+      <c r="S20" s="72"/>
+      <c r="T20" s="71">
         <v>14</v>
       </c>
-      <c r="U20" s="68"/>
-      <c r="V20" s="60">
+      <c r="U20" s="72"/>
+      <c r="V20" s="69">
         <v>15</v>
       </c>
     </row>
@@ -1977,7 +1999,8 @@
     <mergeCell ref="P18:Q19"/>
     <mergeCell ref="R18:U18"/>
   </mergeCells>
-  <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.19685039370078741" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="0.31496062992125984"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.08" right="0.08" top="0.27559055118110237" bottom="0" header="0" footer="0.31"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -1991,18 +2014,18 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D10" sqref="D10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2014,10 +2037,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="100"/>
+      <c r="Q1" s="104"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2051,12 +2074,12 @@
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2068,19 +2091,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="101" t="s">
+      <c r="P3" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2111,10 +2134,10 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="98"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2136,13 +2159,13 @@
       <c r="C6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="98"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2169,8 +2192,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2189,32 +2212,32 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -2227,11 +2250,11 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="113" t="s">
+      <c r="K9" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="114"/>
-      <c r="M9" s="66" t="s">
+      <c r="L9" s="118"/>
+      <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
       <c r="N9" s="18"/>
@@ -2240,24 +2263,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
     </row>
     <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="110" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2275,36 +2298,36 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105" t="s">
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="116" t="s">
+      <c r="P11" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
     </row>
     <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
@@ -2337,26 +2360,26 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="111" t="s">
+      <c r="K13" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2388,43 +2411,43 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="116" t="s">
+      <c r="P14" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116" t="s">
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116" t="s">
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="116"/>
+      <c r="V14" s="120"/>
     </row>
     <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="111" t="s">
+      <c r="K15" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2456,19 +2479,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="116" t="s">
+      <c r="P16" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116" t="s">
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116" t="s">
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="116"/>
+      <c r="V16" s="120"/>
     </row>
     <row r="17" spans="1:22" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
@@ -2492,11 +2515,11 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -394,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -629,11 +629,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -845,6 +882,12 @@
     <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,7 +978,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -974,29 +1023,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H19"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1334,114 +1383,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="96" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
     </row>
     <row r="3" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
-      <c r="T3" s="87" t="s">
+      <c r="T3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="83" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="73">
+      <c r="T4" s="103">
         <v>330212</v>
       </c>
-      <c r="U4" s="75"/>
-      <c r="V4" s="84"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="105"/>
     </row>
     <row r="5" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
@@ -1462,10 +1511,10 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="35"/>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="83"/>
+      <c r="R5" s="85"/>
       <c r="S5" s="30"/>
       <c r="T5" s="36"/>
       <c r="U5" s="37"/>
@@ -1498,38 +1547,38 @@
       <c r="V6" s="65"/>
     </row>
     <row r="7" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="83" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
       <c r="S7" s="30"/>
       <c r="T7" s="38"/>
       <c r="U7" s="39"/>
       <c r="V7" s="65"/>
     </row>
     <row r="8" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="41"/>
@@ -1546,48 +1595,48 @@
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="83"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
       <c r="P9" s="35"/>
-      <c r="Q9" s="83" t="s">
+      <c r="Q9" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="30"/>
       <c r="T9" s="43"/>
       <c r="U9" s="33"/>
       <c r="V9" s="66"/>
     </row>
     <row r="10" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="41"/>
@@ -1604,34 +1653,34 @@
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="30"/>
       <c r="T10" s="44"/>
       <c r="U10" s="30"/>
       <c r="V10" s="67"/>
     </row>
     <row r="11" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="83" t="s">
+      <c r="Q11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="83"/>
+      <c r="R11" s="85"/>
       <c r="S11" s="30"/>
       <c r="T11" s="38"/>
       <c r="U11" s="39"/>
@@ -1656,40 +1705,40 @@
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="92" t="s">
+      <c r="Q12" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="93"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="38"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="71"/>
       <c r="U12" s="39"/>
       <c r="V12" s="65"/>
     </row>
     <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
       <c r="P13" s="47"/>
-      <c r="Q13" s="93" t="s">
+      <c r="Q13" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="93"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="38"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="71"/>
       <c r="U13" s="39"/>
       <c r="V13" s="65"/>
     </row>
@@ -1707,18 +1756,18 @@
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="93" t="s">
+      <c r="L14" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="92" t="s">
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
       <c r="V14" s="65"/>
@@ -1730,25 +1779,25 @@
       <c r="D15" s="46"/>
       <c r="E15" s="30"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="87" t="s">
+      <c r="H15" s="90"/>
+      <c r="I15" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="88"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="50"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
-      <c r="Q15" s="89" t="s">
+      <c r="Q15" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="90"/>
-      <c r="S15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="93"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="65"/>
@@ -1757,25 +1806,25 @@
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="75"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="51"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="83" t="s">
+      <c r="P16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
       <c r="S16" s="52"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
@@ -1806,58 +1855,58 @@
       <c r="V17" s="68"/>
     </row>
     <row r="18" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="73" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="73" t="s">
+      <c r="G18" s="77"/>
+      <c r="H18" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="73" t="s">
+      <c r="J18" s="77"/>
+      <c r="K18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="84"/>
-      <c r="N18" s="73" t="s">
+      <c r="M18" s="86"/>
+      <c r="N18" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="73" t="s">
+      <c r="O18" s="77"/>
+      <c r="P18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="73" t="s">
+      <c r="Q18" s="77"/>
+      <c r="R18" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="79" t="s">
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="81" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="76"/>
+      <c r="B19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="54" t="s">
         <v>34</v>
       </c>
@@ -1867,39 +1916,39 @@
       <c r="G19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="73" t="s">
+      <c r="K19" s="76"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="75"/>
-      <c r="T19" s="73" t="s">
+      <c r="S19" s="77"/>
+      <c r="T19" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="84"/>
-      <c r="V19" s="80"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="82"/>
     </row>
     <row r="20" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55">
         <v>1</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="79">
         <v>2</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="54">
         <v>3</v>
       </c>
@@ -1921,26 +1970,26 @@
       <c r="K20" s="55">
         <v>9</v>
       </c>
-      <c r="L20" s="71">
+      <c r="L20" s="73">
         <v>10</v>
       </c>
-      <c r="M20" s="72"/>
-      <c r="N20" s="71">
+      <c r="M20" s="74"/>
+      <c r="N20" s="73">
         <v>11</v>
       </c>
-      <c r="O20" s="72"/>
-      <c r="P20" s="71">
+      <c r="O20" s="74"/>
+      <c r="P20" s="73">
         <v>12</v>
       </c>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="71">
+      <c r="Q20" s="74"/>
+      <c r="R20" s="73">
         <v>13</v>
       </c>
-      <c r="S20" s="72"/>
-      <c r="T20" s="71">
+      <c r="S20" s="74"/>
+      <c r="T20" s="73">
         <v>14</v>
       </c>
-      <c r="U20" s="72"/>
+      <c r="U20" s="74"/>
       <c r="V20" s="69">
         <v>15</v>
       </c>
@@ -2014,33 +2063,33 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:I10"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="I1" s="72"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="104" t="s">
+      <c r="P1" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="104"/>
+      <c r="Q1" s="108"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2056,9 +2105,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="I2" s="16"/>
       <c r="J2" s="9"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2091,19 +2138,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="105" t="s">
+      <c r="P3" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2134,10 +2181,10 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="102"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2162,10 +2209,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2192,8 +2239,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2212,27 +2259,27 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
       <c r="R8" s="18"/>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
@@ -2250,10 +2297,10 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="118"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
@@ -2263,24 +2310,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
     </row>
     <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="121" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2298,36 +2345,36 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="120" t="s">
+      <c r="P11" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="120"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
     </row>
     <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
@@ -2360,26 +2407,26 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109" t="s">
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2411,43 +2458,43 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="120" t="s">
+      <c r="P14" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120" t="s">
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120" t="s">
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="120"/>
+      <c r="V14" s="125"/>
     </row>
     <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="115" t="s">
+      <c r="K15" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2479,19 +2526,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="120" t="s">
+      <c r="P16" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120" t="s">
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120" t="s">
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="120"/>
+      <c r="V16" s="125"/>
     </row>
     <row r="17" spans="1:22" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
@@ -2515,11 +2562,11 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\Desktop\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Низ!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$18:$20</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$19:$21</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -250,8 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +373,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -888,52 +897,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,20 +927,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -963,29 +945,104 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -996,56 +1053,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,183 +1360,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:N3"/>
+    <sheetView topLeftCell="A94" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="57" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="58" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="57" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="58" customWidth="1"/>
     <col min="9" max="9" width="7" style="58" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="58" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="58"/>
-    <col min="13" max="13" width="2.6640625" style="58" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="58" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="58" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="58"/>
+    <col min="13" max="13" width="2.7109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="58" customWidth="1"/>
     <col min="16" max="16" width="6" style="58" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" style="58" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="58" customWidth="1"/>
-    <col min="19" max="19" width="3.1640625" style="58" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="58" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="58" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="58" customWidth="1"/>
     <col min="21" max="21" width="8" style="58" customWidth="1"/>
     <col min="22" max="22" width="12" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="73"/>
+    </row>
+    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="98" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-    </row>
-    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="98" t="s">
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+    </row>
+    <row r="3" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-    </row>
-    <row r="3" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="89" t="s">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-    </row>
-    <row r="4" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+    </row>
+    <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="85" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="103">
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="84">
         <v>330212</v>
       </c>
-      <c r="U4" s="104"/>
-      <c r="V4" s="105"/>
-    </row>
-    <row r="5" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="64"/>
-    </row>
-    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="85"/>
+      <c r="V5" s="86"/>
+    </row>
+    <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -1539,517 +1523,545 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
+      <c r="Q6" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="74"/>
       <c r="S6" s="30"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="65"/>
-    </row>
-    <row r="7" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="64"/>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
       <c r="S7" s="30"/>
       <c r="T7" s="38"/>
       <c r="U7" s="39"/>
       <c r="V7" s="65"/>
     </row>
-    <row r="8" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="85"/>
+    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="65"/>
     </row>
-    <row r="9" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97" t="s">
+    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="74"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="65"/>
+    </row>
+    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="85" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="85"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="66"/>
-    </row>
-    <row r="10" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
+      <c r="R10" s="74"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="66"/>
+    </row>
+    <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="34" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="67"/>
-    </row>
-    <row r="11" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="85" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="67"/>
+    </row>
+    <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="85"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="65"/>
-    </row>
-    <row r="12" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="95"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="71"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="39"/>
       <c r="V12" s="65"/>
     </row>
-    <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="95"/>
-      <c r="S13" s="90"/>
+    <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="78"/>
+      <c r="S13" s="82"/>
       <c r="T13" s="71"/>
       <c r="U13" s="39"/>
       <c r="V13" s="65"/>
     </row>
-    <row r="14" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="38"/>
+    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="78"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="71"/>
       <c r="U14" s="39"/>
       <c r="V14" s="65"/>
     </row>
-    <row r="15" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="92"/>
-      <c r="S15" s="93"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="65"/>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="51"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="82"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="52"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="90"/>
+      <c r="S16" s="91"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="65"/>
     </row>
-    <row r="17" spans="1:22" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="30"/>
+      <c r="D17" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="68"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="P17" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="65"/>
+    </row>
+    <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="68"/>
+    </row>
+    <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B19" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="75" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="75" t="s">
+      <c r="G19" s="94"/>
+      <c r="H19" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I19" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="75" t="s">
+      <c r="J19" s="94"/>
+      <c r="K19" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="75" t="s">
+      <c r="L19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="86"/>
-      <c r="N18" s="75" t="s">
+      <c r="M19" s="99"/>
+      <c r="N19" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="77"/>
-      <c r="P18" s="75" t="s">
+      <c r="O19" s="94"/>
+      <c r="P19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="75" t="s">
+      <c r="Q19" s="94"/>
+      <c r="R19" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="81" t="s">
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="95" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="75" t="s">
+    <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="93"/>
+      <c r="B20" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="54" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F20" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="55" t="s">
+      <c r="H20" s="92"/>
+      <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="75" t="s">
+      <c r="K20" s="93"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="77"/>
-      <c r="T19" s="75" t="s">
+      <c r="S20" s="94"/>
+      <c r="T20" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="86"/>
-      <c r="V19" s="82"/>
-    </row>
-    <row r="20" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55">
+      <c r="U20" s="99"/>
+      <c r="V20" s="96"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B20" s="79">
+      <c r="B21" s="102">
         <v>2</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="54">
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="54">
         <v>3</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F21" s="55">
         <v>4</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G21" s="54">
         <v>5</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H21" s="55">
         <v>6</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I21" s="55">
         <v>7</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J21" s="54">
         <v>8</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L21" s="104">
         <v>10</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="73">
+      <c r="M21" s="105"/>
+      <c r="N21" s="104">
         <v>11</v>
       </c>
-      <c r="O20" s="74"/>
-      <c r="P20" s="73">
+      <c r="O21" s="105"/>
+      <c r="P21" s="104">
         <v>12</v>
       </c>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="73">
+      <c r="Q21" s="105"/>
+      <c r="R21" s="104">
         <v>13</v>
       </c>
-      <c r="S20" s="74"/>
-      <c r="T20" s="73">
+      <c r="S21" s="105"/>
+      <c r="T21" s="104">
         <v>14</v>
       </c>
-      <c r="U20" s="74"/>
-      <c r="V20" s="69">
+      <c r="U21" s="105"/>
+      <c r="V21" s="69">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="Q14:S14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.08" right="0.08" top="0.27559055118110237" bottom="0" header="0" footer="0.31"/>
+  <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -2062,19 +2074,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2086,17 +2098,17 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="108" t="s">
+      <c r="P1" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="108"/>
+      <c r="Q1" s="124"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="12.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2120,7 +2132,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="25" t="s">
@@ -2138,19 +2150,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="109" t="s">
+      <c r="P3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+    <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2174,17 +2186,17 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="106"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2200,7 +2212,7 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25" t="s">
@@ -2209,10 +2221,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="106"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2230,7 +2242,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2239,8 +2251,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2258,35 +2270,35 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114" t="s">
+    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
       <c r="R8" s="18"/>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
     </row>
-    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2297,10 +2309,10 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="122"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
@@ -2310,24 +2322,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114" t="s">
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="118" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2344,39 +2356,39 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="114" t="s">
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113" t="s">
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="125" t="s">
+      <c r="P11" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-    </row>
-    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+    </row>
+    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2406,27 +2418,27 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
     </row>
-    <row r="13" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113" t="s">
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="119" t="s">
+      <c r="K13" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2436,7 +2448,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2458,43 +2470,43 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="125" t="s">
+      <c r="P14" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125" t="s">
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="125"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125" t="s">
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="125"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123" t="s">
+      <c r="V14" s="109"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="119" t="s">
+      <c r="K15" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2504,7 +2516,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="21"/>
@@ -2526,21 +2538,21 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="125" t="s">
+      <c r="P16" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125" t="s">
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125" t="s">
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="125"/>
-    </row>
-    <row r="17" spans="1:22" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="109"/>
+    </row>
+    <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="15" t="s">
@@ -2562,28 +2574,21 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2597,13 +2602,20 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\Desktop\CRM-Avi\templates\order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,9 +900,81 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -912,19 +984,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -939,122 +999,62 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,149 +1362,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="57" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="57" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="58" customWidth="1"/>
     <col min="9" max="9" width="7" style="58" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="58"/>
-    <col min="13" max="13" width="2.7109375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="58" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="58" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="58"/>
+    <col min="13" max="13" width="2.6640625" style="58" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="58" customWidth="1"/>
     <col min="16" max="16" width="6" style="58" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="58" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="58" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="58" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="58" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="58" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="58" customWidth="1"/>
     <col min="21" max="21" width="8" style="58" customWidth="1"/>
     <col min="22" max="22" width="12" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="C1" s="73"/>
     </row>
-    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-    </row>
-    <row r="3" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="75" t="s">
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+    </row>
+    <row r="3" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="81" t="s">
+      <c r="T4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-    </row>
-    <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+    </row>
+    <row r="5" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="74" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="84">
+      <c r="T5" s="104">
         <v>330212</v>
       </c>
-      <c r="U5" s="85"/>
-      <c r="V5" s="86"/>
-    </row>
-    <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="105"/>
+      <c r="V5" s="106"/>
+    </row>
+    <row r="6" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -1523,16 +1523,16 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="74" t="s">
+      <c r="Q6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="74"/>
+      <c r="R6" s="86"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
       <c r="V6" s="64"/>
     </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -1558,39 +1558,39 @@
       <c r="U7" s="39"/>
       <c r="V7" s="65"/>
     </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+    <row r="8" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="74" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="65"/>
     </row>
-    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1607,48 +1607,48 @@
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="74" t="s">
+      <c r="Q9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="74"/>
+      <c r="R9" s="86"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
       <c r="V9" s="65"/>
     </row>
-    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88" t="s">
+    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="74" t="s">
+      <c r="Q10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="74"/>
+      <c r="R10" s="86"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
       <c r="V10" s="66"/>
     </row>
-    <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+    <row r="11" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1665,40 +1665,40 @@
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
       <c r="V11" s="67"/>
     </row>
-    <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
+    <row r="12" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="74" t="s">
+      <c r="Q12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="74"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
       <c r="V12" s="65"/>
     </row>
-    <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
       <c r="C13" s="40"/>
@@ -1717,44 +1717,44 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="80" t="s">
+      <c r="Q13" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="78"/>
-      <c r="S13" s="82"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="91"/>
       <c r="T13" s="71"/>
       <c r="U13" s="39"/>
       <c r="V13" s="65"/>
     </row>
-    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="78" t="s">
+      <c r="Q14" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="78"/>
-      <c r="S14" s="82"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="91"/>
       <c r="T14" s="71"/>
       <c r="U14" s="39"/>
       <c r="V14" s="65"/>
     </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
       <c r="C15" s="40"/>
@@ -1768,81 +1768,81 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="78" t="s">
+      <c r="L15" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80" t="s">
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="65"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="81" t="s">
+      <c r="H16" s="91"/>
+      <c r="I16" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="82"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="89" t="s">
+      <c r="Q16" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="90"/>
-      <c r="S16" s="91"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="65"/>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="94"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="78"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="74" t="s">
+      <c r="P17" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
       <c r="V17" s="65"/>
     </row>
-    <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -1866,59 +1866,59 @@
       <c r="U18" s="53"/>
       <c r="V18" s="68"/>
     </row>
-    <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92" t="s">
+    <row r="19" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="92" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="92" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="92" t="s">
+      <c r="I19" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="92" t="s">
+      <c r="J19" s="78"/>
+      <c r="K19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="92" t="s">
+      <c r="L19" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="92" t="s">
+      <c r="M19" s="87"/>
+      <c r="N19" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="94"/>
-      <c r="P19" s="92" t="s">
+      <c r="O19" s="78"/>
+      <c r="P19" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="92" t="s">
+      <c r="Q19" s="78"/>
+      <c r="R19" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="95" t="s">
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93"/>
-      <c r="B20" s="92" t="s">
+    <row r="20" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -1928,39 +1928,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="92"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="92" t="s">
+      <c r="K20" s="77"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="94"/>
-      <c r="T20" s="92" t="s">
+      <c r="S20" s="78"/>
+      <c r="T20" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="99"/>
-      <c r="V20" s="96"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="87"/>
+      <c r="V20" s="83"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="80">
         <v>2</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -1982,67 +1982,32 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="74">
         <v>10</v>
       </c>
-      <c r="M21" s="105"/>
-      <c r="N21" s="104">
+      <c r="M21" s="75"/>
+      <c r="N21" s="74">
         <v>11</v>
       </c>
-      <c r="O21" s="105"/>
-      <c r="P21" s="104">
+      <c r="O21" s="75"/>
+      <c r="P21" s="74">
         <v>12</v>
       </c>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="104">
+      <c r="Q21" s="75"/>
+      <c r="R21" s="74">
         <v>13</v>
       </c>
-      <c r="S21" s="105"/>
-      <c r="T21" s="104">
+      <c r="S21" s="75"/>
+      <c r="T21" s="74">
         <v>14</v>
       </c>
-      <c r="U21" s="105"/>
+      <c r="U21" s="75"/>
       <c r="V21" s="69">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2059,6 +2024,41 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2074,19 +2074,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2098,17 +2098,17 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="124"/>
+      <c r="Q1" s="109"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="12.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2132,7 +2132,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="25" t="s">
@@ -2150,19 +2150,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
+    <row r="4" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2186,17 +2186,17 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="122"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2212,7 +2212,7 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25" t="s">
@@ -2221,10 +2221,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2242,7 +2242,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2251,8 +2251,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2270,35 +2270,35 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
       <c r="R8" s="18"/>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
     </row>
-    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2309,10 +2309,10 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="111" t="s">
+      <c r="K9" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="110"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
@@ -2322,24 +2322,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118" t="s">
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="121" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2356,39 +2356,39 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+    <row r="11" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="110"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="109" t="s">
+      <c r="P11" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-    </row>
-    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+    </row>
+    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2418,27 +2418,27 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
     </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="112" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="112"/>
       <c r="C13" s="112"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117" t="s">
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2448,7 +2448,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2470,21 +2470,21 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="109" t="s">
+      <c r="P14" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109" t="s">
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109" t="s">
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="109"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="125"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="112" t="s">
         <v>64</v>
       </c>
@@ -2495,18 +2495,18 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="113" t="s">
+      <c r="G15" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="114" t="s">
+      <c r="K15" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2516,7 +2516,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="21"/>
@@ -2538,21 +2538,21 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="109" t="s">
+      <c r="P16" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109" t="s">
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109" t="s">
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="109"/>
-    </row>
-    <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="125"/>
+    </row>
+    <row r="17" spans="1:22" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="15" t="s">
@@ -2574,21 +2574,28 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2602,20 +2609,13 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -675,11 +675,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -891,15 +928,21 @@
     <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,15 +1033,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1055,6 +1089,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,148 +1415,148 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N4"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="57" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="58" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="57" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="58" customWidth="1"/>
     <col min="9" max="9" width="7" style="58" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="58" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="58"/>
-    <col min="13" max="13" width="2.6640625" style="58" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="58" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="58" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="58"/>
+    <col min="13" max="13" width="2.7109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="58" customWidth="1"/>
     <col min="16" max="16" width="6" style="58" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" style="58" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="58" customWidth="1"/>
-    <col min="19" max="19" width="3.1640625" style="58" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="58" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="58" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="58" customWidth="1"/>
     <col min="21" max="21" width="8" style="58" customWidth="1"/>
     <col min="22" max="22" width="12" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="73"/>
-    </row>
-    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="72"/>
+    </row>
+    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="99" t="s">
+      <c r="Q2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-    </row>
-    <row r="3" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="99" t="s">
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+    </row>
+    <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="90" t="s">
+      <c r="T4" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-    </row>
-    <row r="5" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
+      <c r="U4" s="129"/>
+      <c r="V4" s="130"/>
+    </row>
+    <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="86" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="104">
+      <c r="T5" s="125">
         <v>330212</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-    </row>
-    <row r="6" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+    </row>
+    <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -1523,16 +1575,16 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="86" t="s">
+      <c r="Q6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="86"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
       <c r="V6" s="64"/>
     </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -1558,39 +1610,39 @@
       <c r="U7" s="39"/>
       <c r="V7" s="65"/>
     </row>
-    <row r="8" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="97" t="s">
+    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="86" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="65"/>
     </row>
-    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
+    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1607,48 +1659,48 @@
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="86"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
       <c r="V9" s="65"/>
     </row>
-    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98" t="s">
+    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="86" t="s">
+      <c r="Q10" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="86"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
       <c r="V10" s="66"/>
     </row>
-    <row r="11" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97" t="s">
+    <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1665,40 +1717,40 @@
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
       <c r="V11" s="67"/>
     </row>
-    <row r="12" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
+    <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="86" t="s">
+      <c r="Q12" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="86"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
       <c r="V12" s="65"/>
     </row>
-    <row r="13" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
       <c r="C13" s="40"/>
@@ -1717,44 +1769,44 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="95" t="s">
+      <c r="Q13" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="96"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="65"/>
-    </row>
-    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
+      <c r="R13" s="98"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="75"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="96" t="s">
+      <c r="Q14" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="96"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="65"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="98"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="75"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
       <c r="C15" s="40"/>
@@ -1768,81 +1820,81 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="96" t="s">
+      <c r="L15" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="95" t="s">
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="65"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="90" t="s">
+      <c r="H16" s="93"/>
+      <c r="I16" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="91"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="92" t="s">
+      <c r="Q16" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="93"/>
-      <c r="S16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="96"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="65"/>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="78"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="86" t="s">
+      <c r="P17" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
       <c r="V17" s="65"/>
     </row>
-    <row r="18" spans="1:22" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -1866,59 +1918,59 @@
       <c r="U18" s="53"/>
       <c r="V18" s="68"/>
     </row>
-    <row r="19" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+    <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="76" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="76" t="s">
+      <c r="G19" s="80"/>
+      <c r="H19" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="78"/>
-      <c r="K19" s="76" t="s">
+      <c r="J19" s="80"/>
+      <c r="K19" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L19" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="87"/>
-      <c r="N19" s="76" t="s">
+      <c r="M19" s="89"/>
+      <c r="N19" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="78"/>
-      <c r="P19" s="76" t="s">
+      <c r="O19" s="80"/>
+      <c r="P19" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="76" t="s">
+      <c r="Q19" s="80"/>
+      <c r="R19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="82" t="s">
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="76" t="s">
+    <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
+      <c r="B20" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -1928,39 +1980,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="76"/>
+      <c r="H20" s="78"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="76" t="s">
+      <c r="K20" s="79"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="78"/>
-      <c r="T20" s="76" t="s">
+      <c r="S20" s="80"/>
+      <c r="T20" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="87"/>
-      <c r="V20" s="83"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="89"/>
+      <c r="V20" s="85"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="80">
+      <c r="B21" s="82">
         <v>2</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -1982,32 +2034,32 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="74">
+      <c r="L21" s="76">
         <v>10</v>
       </c>
-      <c r="M21" s="75"/>
-      <c r="N21" s="74">
+      <c r="M21" s="77"/>
+      <c r="N21" s="76">
         <v>11</v>
       </c>
-      <c r="O21" s="75"/>
-      <c r="P21" s="74">
+      <c r="O21" s="77"/>
+      <c r="P21" s="76">
         <v>12</v>
       </c>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="74">
+      <c r="Q21" s="77"/>
+      <c r="R21" s="76">
         <v>13</v>
       </c>
-      <c r="S21" s="75"/>
-      <c r="T21" s="74">
+      <c r="S21" s="77"/>
+      <c r="T21" s="76">
         <v>14</v>
       </c>
-      <c r="U21" s="75"/>
+      <c r="U21" s="77"/>
       <c r="V21" s="69">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="53">
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2040,25 +2092,27 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="V19:V20"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
     <mergeCell ref="L19:M20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="N19:O20"/>
     <mergeCell ref="P19:Q20"/>
     <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2078,37 +2132,37 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="72"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="109" t="s">
+      <c r="P1" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="109"/>
+      <c r="Q1" s="108"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="12.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2132,7 +2186,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="25" t="s">
@@ -2150,19 +2204,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
+    <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2186,17 +2240,17 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="107"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2212,7 +2266,7 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25" t="s">
@@ -2221,10 +2275,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="107"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2242,7 +2296,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2251,8 +2305,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2270,35 +2324,35 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="115" t="s">
+    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
       <c r="R8" s="18"/>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
     </row>
-    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2309,10 +2363,10 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="122" t="s">
+      <c r="K9" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="123"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
@@ -2322,24 +2376,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="115" t="s">
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="119" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2356,39 +2410,39 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="115" t="s">
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="125" t="s">
+      <c r="P11" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-    </row>
-    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+    </row>
+    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2418,27 +2472,27 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
     </row>
-    <row r="13" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="112" t="s">
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114" t="s">
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="120" t="s">
+      <c r="K13" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2448,7 +2502,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2470,43 +2524,43 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="125" t="s">
+      <c r="P14" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125" t="s">
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="125"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125" t="s">
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="125"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="112" t="s">
+      <c r="V14" s="124"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="120" t="s">
+      <c r="K15" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2516,7 +2570,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="21"/>
@@ -2538,21 +2592,21 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="125" t="s">
+      <c r="P16" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125" t="s">
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125" t="s">
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="125"/>
-    </row>
-    <row r="17" spans="1:22" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="124"/>
+    </row>
+    <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="15" t="s">
@@ -2574,11 +2628,11 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -251,6 +251,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
+  </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -934,6 +937,105 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,95 +1045,59 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1042,70 +1108,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1414,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,8 +1465,8 @@
     <col min="11" max="11" width="8.28515625" style="58" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="58"/>
     <col min="13" max="13" width="2.7109375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="58" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="58" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="131" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="131" customWidth="1"/>
     <col min="16" max="16" width="6" style="58" customWidth="1"/>
     <col min="17" max="17" width="5.140625" style="58" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="58" customWidth="1"/>
@@ -1447,114 +1480,114 @@
       <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="30"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="101" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="30"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="132"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="128" t="s">
+      <c r="T4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="129"/>
-      <c r="V4" s="130"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="88" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="125">
+      <c r="T5" s="84">
         <v>330212</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -1572,13 +1605,13 @@
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="88" t="s">
+      <c r="Q6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="88"/>
+      <c r="R6" s="73"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
@@ -1600,8 +1633,8 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
@@ -1611,38 +1644,38 @@
       <c r="V7" s="65"/>
     </row>
     <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="88" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1656,51 +1689,51 @@
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="88" t="s">
+      <c r="Q9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="88"/>
+      <c r="R9" s="73"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
       <c r="V9" s="65"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="88" t="s">
+      <c r="Q10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="88"/>
+      <c r="R10" s="73"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
       <c r="V10" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1714,37 +1747,37 @@
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
       <c r="V11" s="67"/>
     </row>
     <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="88" t="s">
+      <c r="Q12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="88"/>
+      <c r="R12" s="73"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
@@ -1766,45 +1799,45 @@
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="97" t="s">
+      <c r="Q13" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="98"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="75"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="108"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="98" t="s">
+      <c r="Q14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="98"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="75"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="108"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
@@ -1820,18 +1853,18 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="98" t="s">
+      <c r="L15" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="97" t="s">
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="65"/>
@@ -1843,25 +1876,25 @@
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="92" t="s">
+      <c r="H16" s="89"/>
+      <c r="I16" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="93"/>
+      <c r="J16" s="89"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="94" t="s">
+      <c r="Q16" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="95"/>
-      <c r="S16" s="96"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="93"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="65"/>
@@ -1870,25 +1903,25 @@
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="80"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="96"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="88" t="s">
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
@@ -1908,8 +1941,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
@@ -1919,58 +1952,58 @@
       <c r="V18" s="68"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="78" t="s">
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="78" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="78" t="s">
+      <c r="J19" s="96"/>
+      <c r="K19" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="L19" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="78" t="s">
+      <c r="M19" s="99"/>
+      <c r="N19" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="78" t="s">
+      <c r="O19" s="136"/>
+      <c r="P19" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="78" t="s">
+      <c r="Q19" s="96"/>
+      <c r="R19" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="84" t="s">
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="110" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -1980,39 +2013,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="78"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="79"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="78" t="s">
+      <c r="K20" s="95"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="80"/>
-      <c r="T20" s="78" t="s">
+      <c r="S20" s="96"/>
+      <c r="T20" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="89"/>
-      <c r="V20" s="85"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="111"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="102">
         <v>2</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -2034,32 +2067,69 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="76">
+      <c r="L21" s="104">
         <v>10</v>
       </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="76">
+      <c r="M21" s="105"/>
+      <c r="N21" s="139">
         <v>11</v>
       </c>
-      <c r="O21" s="77"/>
-      <c r="P21" s="76">
+      <c r="O21" s="140"/>
+      <c r="P21" s="104">
         <v>12</v>
       </c>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="76">
+      <c r="Q21" s="105"/>
+      <c r="R21" s="104">
         <v>13</v>
       </c>
-      <c r="S21" s="77"/>
-      <c r="T21" s="76">
+      <c r="S21" s="105"/>
+      <c r="T21" s="104">
         <v>14</v>
       </c>
-      <c r="U21" s="77"/>
+      <c r="U21" s="105"/>
       <c r="V21" s="69">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2076,43 +2146,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2135,12 +2168,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2152,10 +2185,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="108" t="s">
+      <c r="P1" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="108"/>
+      <c r="Q1" s="129"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2204,19 +2237,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="109" t="s">
+      <c r="P3" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2247,10 +2280,10 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="106"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2275,10 +2308,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="106"/>
+      <c r="H6" s="127"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2305,8 +2338,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2325,27 +2358,27 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
       <c r="R8" s="18"/>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
@@ -2363,10 +2396,10 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="122"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
@@ -2376,24 +2409,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="118" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2411,36 +2444,36 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113" t="s">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="124" t="s">
+      <c r="P11" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
     </row>
     <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -2473,19 +2506,19 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113" t="s">
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="18"/>
       <c r="K13" s="119" t="s">
         <v>63</v>
@@ -2524,36 +2557,36 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="124" t="s">
+      <c r="P14" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124" t="s">
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124" t="s">
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="124"/>
+      <c r="V14" s="114"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="123" t="s">
+      <c r="G15" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
       <c r="J15" s="18"/>
       <c r="K15" s="119" t="s">
         <v>66</v>
@@ -2592,19 +2625,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="124" t="s">
+      <c r="P16" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124" t="s">
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124" t="s">
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="124"/>
+      <c r="V16" s="114"/>
     </row>
     <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2628,28 +2661,21 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2663,13 +2689,20 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>от "____"                       20____г.</t>
+  </si>
+  <si>
+    <t>Гл. бухгалтер</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +388,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF080000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -719,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -937,9 +948,123 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -949,13 +1074,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,167 +1098,65 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,8 +1482,8 @@
     <col min="11" max="11" width="8.28515625" style="58" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="58"/>
     <col min="13" max="13" width="2.7109375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="131" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="131" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="73" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="73" customWidth="1"/>
     <col min="16" max="16" width="6" style="58" customWidth="1"/>
     <col min="17" max="17" width="5.140625" style="58" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="58" customWidth="1"/>
@@ -1480,114 +1497,114 @@
       <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="132"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="74" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="132"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="74"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="80" t="s">
+      <c r="T4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="118"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="73" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="84">
+      <c r="T5" s="120">
         <v>330212</v>
       </c>
-      <c r="U5" s="85"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="122"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -1605,13 +1622,13 @@
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="73" t="s">
+      <c r="Q6" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="73"/>
+      <c r="R6" s="100"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
@@ -1633,8 +1650,8 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
@@ -1644,38 +1661,38 @@
       <c r="V7" s="65"/>
     </row>
     <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="73" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1689,51 +1706,51 @@
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="73" t="s">
+      <c r="Q9" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="73"/>
+      <c r="R9" s="100"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
       <c r="V9" s="65"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="73" t="s">
+      <c r="Q10" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="73"/>
+      <c r="R10" s="100"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
       <c r="V10" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1747,37 +1764,37 @@
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
       <c r="V11" s="67"/>
     </row>
     <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="73" t="s">
+      <c r="Q12" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="73"/>
+      <c r="R12" s="100"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
@@ -1799,45 +1816,45 @@
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="79" t="s">
+      <c r="Q13" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="77"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="108"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="77" t="s">
+      <c r="Q14" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="77"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="108"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="80"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
@@ -1853,18 +1870,18 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="79" t="s">
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="65"/>
@@ -1876,25 +1893,25 @@
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90" t="s">
+      <c r="H16" s="104"/>
+      <c r="I16" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="89"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="92"/>
-      <c r="S16" s="93"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="107"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="65"/>
@@ -1903,25 +1920,25 @@
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="96"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="89"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="73" t="s">
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
@@ -1941,8 +1958,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
@@ -1952,58 +1969,58 @@
       <c r="V18" s="68"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="94" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="94" t="s">
+      <c r="G19" s="89"/>
+      <c r="H19" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="94" t="s">
+      <c r="I19" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="94" t="s">
+      <c r="J19" s="89"/>
+      <c r="K19" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="94" t="s">
+      <c r="L19" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="135" t="s">
+      <c r="M19" s="93"/>
+      <c r="N19" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="136"/>
-      <c r="P19" s="94" t="s">
+      <c r="O19" s="86"/>
+      <c r="P19" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="94" t="s">
+      <c r="Q19" s="89"/>
+      <c r="R19" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="110" t="s">
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="91" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
-      <c r="B20" s="94" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -2013,39 +2030,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="94"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="94" t="s">
+      <c r="K20" s="84"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="96"/>
-      <c r="T20" s="94" t="s">
+      <c r="S20" s="89"/>
+      <c r="T20" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="99"/>
-      <c r="V20" s="111"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="92"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="94">
         <v>2</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -2067,69 +2084,32 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="81">
         <v>10</v>
       </c>
-      <c r="M21" s="105"/>
-      <c r="N21" s="139">
+      <c r="M21" s="82"/>
+      <c r="N21" s="96">
         <v>11</v>
       </c>
-      <c r="O21" s="140"/>
-      <c r="P21" s="104">
+      <c r="O21" s="97"/>
+      <c r="P21" s="81">
         <v>12</v>
       </c>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="104">
+      <c r="Q21" s="82"/>
+      <c r="R21" s="81">
         <v>13</v>
       </c>
-      <c r="S21" s="105"/>
-      <c r="T21" s="104">
+      <c r="S21" s="82"/>
+      <c r="T21" s="81">
         <v>14</v>
       </c>
-      <c r="U21" s="105"/>
+      <c r="U21" s="82"/>
       <c r="V21" s="69">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2146,6 +2126,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2162,18 +2179,18 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2185,10 +2202,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="129"/>
+      <c r="Q1" s="126"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2237,19 +2254,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="113" t="s">
+      <c r="P3" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2280,10 +2297,10 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="127"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2308,10 +2325,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2338,8 +2355,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2358,27 +2375,27 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
       <c r="R8" s="18"/>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
@@ -2396,10 +2413,10 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="116" t="s">
+      <c r="K9" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="115"/>
+      <c r="L9" s="140"/>
       <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
@@ -2409,24 +2426,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="126" t="s">
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2444,36 +2461,36 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="122" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="115"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="114" t="s">
+      <c r="P11" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
     </row>
     <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -2506,26 +2523,28 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122" t="s">
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="119" t="s">
+      <c r="K13" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2557,43 +2576,43 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="114" t="s">
+      <c r="P14" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114" t="s">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114" t="s">
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="114"/>
+      <c r="V14" s="142"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="118" t="s">
+      <c r="G15" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="119" t="s">
+      <c r="K15" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2625,19 +2644,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="114" t="s">
+      <c r="P16" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114" t="s">
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114" t="s">
+      <c r="S16" s="142"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="114"/>
+      <c r="V16" s="142"/>
     </row>
     <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2661,21 +2680,28 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2689,20 +2715,13 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Низ!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$19:$21</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -963,6 +963,114 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,18 +1080,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,9 +1092,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,98 +1101,50 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1110,53 +1155,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="131" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
@@ -1473,17 +1473,17 @@
     <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="57" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="58" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="58" customWidth="1"/>
     <col min="9" max="9" width="7" style="58" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="58"/>
-    <col min="13" max="13" width="2.7109375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="73" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="73" customWidth="1"/>
+    <col min="11" max="11" width="7" style="58" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="58" customWidth="1"/>
+    <col min="13" max="13" width="1" style="58" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="73" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="73" customWidth="1"/>
     <col min="16" max="16" width="6" style="58" customWidth="1"/>
     <col min="17" max="17" width="5.140625" style="58" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="58" customWidth="1"/>
@@ -1497,114 +1497,114 @@
       <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="74"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="112" t="s">
+      <c r="Q2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="112" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
       <c r="O4" s="74"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="116" t="s">
+      <c r="T4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="100" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="120">
+      <c r="T5" s="89">
         <v>330212</v>
       </c>
-      <c r="U5" s="121"/>
-      <c r="V5" s="122"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="91"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -1625,10 +1625,10 @@
       <c r="N6" s="75"/>
       <c r="O6" s="75"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="100" t="s">
+      <c r="Q6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="100"/>
+      <c r="R6" s="78"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
@@ -1661,38 +1661,38 @@
       <c r="V7" s="65"/>
     </row>
     <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="100" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="110"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1709,48 +1709,48 @@
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="100" t="s">
+      <c r="Q9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="100"/>
+      <c r="R9" s="78"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
       <c r="V9" s="65"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="100" t="s">
+      <c r="Q10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="100"/>
+      <c r="R10" s="78"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
       <c r="V10" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1767,34 +1767,34 @@
       <c r="N11" s="76"/>
       <c r="O11" s="76"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
       <c r="V11" s="67"/>
     </row>
     <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="100" t="s">
+      <c r="Q12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="100"/>
+      <c r="R12" s="78"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
@@ -1819,42 +1819,42 @@
       <c r="N13" s="76"/>
       <c r="O13" s="76"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="108" t="s">
+      <c r="Q13" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="109"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="109" t="s">
+      <c r="Q14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="109"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="116"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
@@ -1870,18 +1870,18 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="109" t="s">
+      <c r="L15" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="108" t="s">
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="65"/>
@@ -1893,25 +1893,25 @@
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="103" t="s">
+      <c r="H16" s="95"/>
+      <c r="I16" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="104"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="105" t="s">
+      <c r="Q16" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="106"/>
-      <c r="S16" s="107"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="99"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="65"/>
@@ -1920,25 +1920,25 @@
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="89"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="102"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="74"/>
       <c r="O17" s="74"/>
-      <c r="P17" s="100" t="s">
+      <c r="P17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
@@ -1969,58 +1969,58 @@
       <c r="V18" s="68"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="83" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="83" t="s">
+      <c r="G19" s="102"/>
+      <c r="H19" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="I19" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="83" t="s">
+      <c r="J19" s="102"/>
+      <c r="K19" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="83" t="s">
+      <c r="L19" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="93"/>
-      <c r="N19" s="85" t="s">
+      <c r="M19" s="105"/>
+      <c r="N19" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="86"/>
-      <c r="P19" s="83" t="s">
+      <c r="O19" s="118"/>
+      <c r="P19" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="83" t="s">
+      <c r="Q19" s="102"/>
+      <c r="R19" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="91" t="s">
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="122" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -2030,39 +2030,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="83" t="s">
+      <c r="K20" s="101"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="89"/>
-      <c r="T20" s="83" t="s">
+      <c r="S20" s="102"/>
+      <c r="T20" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="93"/>
-      <c r="V20" s="92"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="123"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="108">
         <v>2</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -2084,32 +2084,69 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="81">
+      <c r="L21" s="110">
         <v>10</v>
       </c>
-      <c r="M21" s="82"/>
-      <c r="N21" s="96">
+      <c r="M21" s="111"/>
+      <c r="N21" s="112">
         <v>11</v>
       </c>
-      <c r="O21" s="97"/>
-      <c r="P21" s="81">
+      <c r="O21" s="113"/>
+      <c r="P21" s="110">
         <v>12</v>
       </c>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="81">
+      <c r="Q21" s="111"/>
+      <c r="R21" s="110">
         <v>13</v>
       </c>
-      <c r="S21" s="82"/>
-      <c r="T21" s="81">
+      <c r="S21" s="111"/>
+      <c r="T21" s="110">
         <v>14</v>
       </c>
-      <c r="U21" s="82"/>
+      <c r="U21" s="111"/>
       <c r="V21" s="69">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2126,43 +2163,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2185,12 +2185,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2202,10 +2202,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="126" t="s">
+      <c r="P1" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="126"/>
+      <c r="Q1" s="141"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2254,19 +2254,19 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="127" t="s">
+      <c r="P3" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="128"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2297,10 +2297,10 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="124"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2325,10 +2325,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="124"/>
+      <c r="H6" s="139"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2355,8 +2355,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2375,27 +2375,27 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
       <c r="R8" s="18"/>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
@@ -2413,10 +2413,10 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="139" t="s">
+      <c r="K9" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="140"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="61" t="s">
         <v>70</v>
       </c>
@@ -2426,24 +2426,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="136" t="s">
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2461,36 +2461,36 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="131" t="s">
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="140"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="127"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="142" t="s">
+      <c r="P11" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
     </row>
     <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -2531,20 +2531,20 @@
       <c r="D13" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131" t="s">
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="137" t="s">
+      <c r="K13" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2576,19 +2576,19 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="142" t="s">
+      <c r="P14" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142" t="s">
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142" t="s">
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="142"/>
+      <c r="V14" s="126"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="129" t="s">
@@ -2601,18 +2601,18 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2644,19 +2644,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="142" t="s">
+      <c r="P16" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142" t="s">
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142" t="s">
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="142"/>
+      <c r="V16" s="126"/>
     </row>
     <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2680,28 +2680,21 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2715,13 +2708,20 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -900,9 +900,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,9 +942,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,9 +957,108 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -975,13 +1068,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,158 +1092,71 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,146 +1465,146 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H17"/>
+      <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="57" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="7" style="58" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="7" style="58" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="58" customWidth="1"/>
-    <col min="13" max="13" width="1" style="58" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="73" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="73" customWidth="1"/>
-    <col min="16" max="16" width="6" style="58" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="58" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="58" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="58" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="58" customWidth="1"/>
-    <col min="21" max="21" width="8" style="58" customWidth="1"/>
-    <col min="22" max="22" width="12" style="70" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="141" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="141" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="7" style="57" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="7" style="57" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="57" customWidth="1"/>
+    <col min="13" max="13" width="1" style="57" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="71" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="71" customWidth="1"/>
+    <col min="16" max="16" width="6" style="57" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="57" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="57" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="57" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="57" customWidth="1"/>
+    <col min="21" max="21" width="8" style="57" customWidth="1"/>
+    <col min="22" max="22" width="12" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="72"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="74"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="79" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="74"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="85" t="s">
+      <c r="T4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="116"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="78" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="89">
+      <c r="T5" s="118">
         <v>330212</v>
       </c>
-      <c r="U5" s="90"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -1622,17 +1622,17 @@
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="78" t="s">
+      <c r="Q6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="78"/>
+      <c r="R6" s="98"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
-      <c r="V6" s="64"/>
+      <c r="V6" s="63"/>
     </row>
     <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
@@ -1650,49 +1650,49 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
       <c r="S7" s="30"/>
       <c r="T7" s="38"/>
       <c r="U7" s="39"/>
-      <c r="V7" s="65"/>
+      <c r="V7" s="64"/>
     </row>
     <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="78" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
-      <c r="V8" s="65"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1706,51 +1706,51 @@
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="78" t="s">
+      <c r="Q9" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="78"/>
+      <c r="R9" s="98"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
-      <c r="V9" s="65"/>
+      <c r="V9" s="64"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="78" t="s">
+      <c r="Q10" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="78"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="66"/>
+      <c r="V10" s="65"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1764,41 +1764,41 @@
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="67"/>
+      <c r="V11" s="66"/>
     </row>
     <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="78" t="s">
+      <c r="Q12" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="78"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
-      <c r="V12" s="65"/>
+      <c r="V12" s="64"/>
     </row>
     <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
@@ -1816,45 +1816,45 @@
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="84" t="s">
+      <c r="Q13" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="116"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="78"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="82" t="s">
+      <c r="Q14" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="82"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="116"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="78"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
@@ -1870,21 +1870,21 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="82" t="s">
+      <c r="L15" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="84" t="s">
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
-      <c r="V15" s="65"/>
+      <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
@@ -1893,56 +1893,56 @@
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96" t="s">
+      <c r="H16" s="102"/>
+      <c r="I16" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="95"/>
+      <c r="J16" s="102"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="97" t="s">
+      <c r="Q16" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="105"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
-      <c r="V16" s="65"/>
+      <c r="V16" s="64"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="102"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="87"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="78" t="s">
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
-      <c r="V17" s="65"/>
+      <c r="V17" s="64"/>
     </row>
     <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
@@ -1958,69 +1958,69 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
-      <c r="V18" s="68"/>
+      <c r="V18" s="67"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="100" t="s">
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="100" t="s">
+      <c r="G19" s="87"/>
+      <c r="H19" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="100" t="s">
+      <c r="I19" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="100" t="s">
+      <c r="J19" s="87"/>
+      <c r="K19" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="100" t="s">
+      <c r="L19" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="105"/>
-      <c r="N19" s="117" t="s">
+      <c r="M19" s="91"/>
+      <c r="N19" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="118"/>
-      <c r="P19" s="100" t="s">
+      <c r="O19" s="84"/>
+      <c r="P19" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="100" t="s">
+      <c r="Q19" s="87"/>
+      <c r="R19" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="122" t="s">
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="89" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="100" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -2030,39 +2030,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="100"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="100" t="s">
+      <c r="K20" s="82"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="102"/>
-      <c r="T20" s="100" t="s">
+      <c r="S20" s="87"/>
+      <c r="T20" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="105"/>
-      <c r="V20" s="123"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="90"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="108">
+      <c r="B21" s="92">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -2084,69 +2084,32 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="79">
         <v>10</v>
       </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="112">
+      <c r="M21" s="80"/>
+      <c r="N21" s="94">
         <v>11</v>
       </c>
-      <c r="O21" s="113"/>
-      <c r="P21" s="110">
+      <c r="O21" s="95"/>
+      <c r="P21" s="79">
         <v>12</v>
       </c>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="110">
+      <c r="Q21" s="80"/>
+      <c r="R21" s="79">
         <v>13</v>
       </c>
-      <c r="S21" s="111"/>
-      <c r="T21" s="110">
+      <c r="S21" s="80"/>
+      <c r="T21" s="79">
         <v>14</v>
       </c>
-      <c r="U21" s="111"/>
-      <c r="V21" s="69">
+      <c r="U21" s="80"/>
+      <c r="V21" s="68">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2163,6 +2126,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2185,27 +2185,27 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="71"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="141" t="s">
+      <c r="P1" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="141"/>
+      <c r="Q1" s="124"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2237,12 +2237,12 @@
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2265,8 +2265,8 @@
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2297,10 +2297,10 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="139"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2322,13 +2322,13 @@
       <c r="C6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="139"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2355,8 +2355,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2375,32 +2375,32 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -2413,11 +2413,11 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="127"/>
-      <c r="M9" s="61" t="s">
+      <c r="L9" s="138"/>
+      <c r="M9" s="60" t="s">
         <v>70</v>
       </c>
       <c r="N9" s="18"/>
@@ -2426,24 +2426,24 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="138" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="18"/>
       <c r="K10" s="4" t="s">
         <v>54</v>
@@ -2461,36 +2461,36 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="127"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="138"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="126" t="s">
+      <c r="P11" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
     </row>
     <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -2523,28 +2523,28 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="77" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="134" t="s">
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="131" t="s">
+      <c r="K13" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2576,43 +2576,43 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="126" t="s">
+      <c r="P14" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126" t="s">
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126" t="s">
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="126"/>
+      <c r="V14" s="140"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="130" t="s">
+      <c r="G15" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="131" t="s">
+      <c r="K15" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2644,19 +2644,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="126" t="s">
+      <c r="P16" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126" t="s">
+      <c r="Q16" s="140"/>
+      <c r="R16" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126" t="s">
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="126"/>
+      <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2680,21 +2680,28 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
       <c r="U17" s="125"/>
       <c r="V17" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2708,20 +2715,13 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -957,6 +957,120 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,18 +1080,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,9 +1092,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,98 +1101,50 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1104,59 +1155,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,8 +1471,8 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="141" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="141" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="76" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="76" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="57" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="57" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="57" customWidth="1"/>
@@ -1494,117 +1494,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="142"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="72"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="110" t="s">
+      <c r="Q2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="110" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
       <c r="O4" s="72"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="114" t="s">
+      <c r="T4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="115"/>
-      <c r="V4" s="116"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="98" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="118">
+      <c r="T5" s="89">
         <v>330212</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="91"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -1625,10 +1625,10 @@
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="98" t="s">
+      <c r="Q6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="98"/>
+      <c r="R6" s="78"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
@@ -1661,38 +1661,38 @@
       <c r="V7" s="64"/>
     </row>
     <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="98" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="108"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1709,48 +1709,48 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="98" t="s">
+      <c r="Q9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="98"/>
+      <c r="R9" s="78"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
       <c r="V9" s="64"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="98" t="s">
+      <c r="Q10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="98"/>
+      <c r="R10" s="78"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
       <c r="V10" s="65"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1767,34 +1767,34 @@
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
       <c r="V11" s="66"/>
     </row>
     <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="98" t="s">
+      <c r="Q12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="98"/>
+      <c r="R12" s="78"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
@@ -1819,42 +1819,42 @@
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="106" t="s">
+      <c r="Q13" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="78"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="107" t="s">
+      <c r="Q14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="107"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="78"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="116"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
@@ -1870,18 +1870,18 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="107" t="s">
+      <c r="L15" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="106" t="s">
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="64"/>
@@ -1893,25 +1893,25 @@
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="101" t="s">
+      <c r="H16" s="95"/>
+      <c r="I16" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="102"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="103" t="s">
+      <c r="Q16" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="104"/>
-      <c r="S16" s="105"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="99"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="64"/>
@@ -1920,25 +1920,25 @@
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="87"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="102"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
-      <c r="P17" s="98" t="s">
+      <c r="P17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
@@ -1969,58 +1969,58 @@
       <c r="V18" s="67"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="81" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="81" t="s">
+      <c r="G19" s="102"/>
+      <c r="H19" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="81" t="s">
+      <c r="I19" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="87"/>
-      <c r="K19" s="81" t="s">
+      <c r="J19" s="102"/>
+      <c r="K19" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="91"/>
-      <c r="N19" s="83" t="s">
+      <c r="M19" s="105"/>
+      <c r="N19" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="84"/>
-      <c r="P19" s="81" t="s">
+      <c r="O19" s="118"/>
+      <c r="P19" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="81" t="s">
+      <c r="Q19" s="102"/>
+      <c r="R19" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="89" t="s">
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="122" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="81" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -2030,39 +2030,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="81"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="82"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="81" t="s">
+      <c r="K20" s="101"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="87"/>
-      <c r="T20" s="81" t="s">
+      <c r="S20" s="102"/>
+      <c r="T20" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="91"/>
-      <c r="V20" s="90"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="123"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="92">
+      <c r="B21" s="108">
         <v>2</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -2084,32 +2084,69 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="79">
+      <c r="L21" s="110">
         <v>10</v>
       </c>
-      <c r="M21" s="80"/>
-      <c r="N21" s="94">
+      <c r="M21" s="111"/>
+      <c r="N21" s="112">
         <v>11</v>
       </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="79">
+      <c r="O21" s="113"/>
+      <c r="P21" s="110">
         <v>12</v>
       </c>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="79">
+      <c r="Q21" s="111"/>
+      <c r="R21" s="110">
         <v>13</v>
       </c>
-      <c r="S21" s="80"/>
-      <c r="T21" s="79">
+      <c r="S21" s="111"/>
+      <c r="T21" s="110">
         <v>14</v>
       </c>
-      <c r="U21" s="80"/>
+      <c r="U21" s="111"/>
       <c r="V21" s="68">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2126,43 +2163,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2176,21 +2176,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2202,133 +2202,137 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="124"/>
+      <c r="Q1" s="141"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+    <row r="2" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
+    <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="139"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="122" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="122"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+    <row r="5" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="139"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="122"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2346,382 +2350,354 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+    <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+    </row>
+    <row r="8" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="127"/>
+      <c r="M8" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-    </row>
-    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="138"/>
-      <c r="M9" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
+      <c r="K9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="134" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
+      <c r="A10" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="134"/>
       <c r="I10" s="134"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+    </row>
+    <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="140" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-    </row>
-    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="12" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="135" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16" t="s">
+      <c r="P13" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="12" t="s">
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="V13" s="126"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="140" t="s">
+      <c r="K14" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140" t="s">
+      <c r="E15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="140"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="140" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="140"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="135" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="126"/>
+    </row>
+    <row r="16" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140" t="s">
-        <v>60</v>
-      </c>
-      <c r="V16" s="140"/>
-    </row>
-    <row r="17" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15" t="s">
+      <c r="N16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>Отпуск груза произведен</t>
-  </si>
-  <si>
-    <t>Косяченко В.А.</t>
   </si>
   <si>
     <t>Груз получил грузополучатель</t>
@@ -963,9 +960,108 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -975,13 +1071,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,158 +1095,65 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,7 +1462,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+      <selection activeCell="P12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,114 +1494,114 @@
       <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
       <c r="O2" s="72"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="79" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
       <c r="O4" s="72"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="85" t="s">
+      <c r="T4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="118"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="78" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="89">
+      <c r="T5" s="120">
         <v>330212</v>
       </c>
-      <c r="U5" s="90"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="122"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -1625,10 +1622,10 @@
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
       <c r="P6" s="35"/>
-      <c r="Q6" s="78" t="s">
+      <c r="Q6" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="78"/>
+      <c r="R6" s="100"/>
       <c r="S6" s="30"/>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
@@ -1660,39 +1657,39 @@
       <c r="U7" s="39"/>
       <c r="V7" s="64"/>
     </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="78" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="30"/>
       <c r="T8" s="38"/>
       <c r="U8" s="39"/>
       <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -1709,48 +1706,48 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="78" t="s">
+      <c r="Q9" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="78"/>
+      <c r="R9" s="100"/>
       <c r="S9" s="30"/>
       <c r="T9" s="38"/>
       <c r="U9" s="39"/>
       <c r="V9" s="64"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="78" t="s">
+      <c r="Q10" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="78"/>
+      <c r="R10" s="100"/>
       <c r="S10" s="30"/>
       <c r="T10" s="43"/>
       <c r="U10" s="33"/>
       <c r="V10" s="65"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1767,34 +1764,34 @@
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
       <c r="S11" s="30"/>
       <c r="T11" s="44"/>
       <c r="U11" s="30"/>
       <c r="V11" s="66"/>
     </row>
-    <row r="12" spans="1:22" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
+    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="78" t="s">
+      <c r="Q12" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="78"/>
+      <c r="R12" s="100"/>
       <c r="S12" s="30"/>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
@@ -1819,42 +1816,42 @@
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="84" t="s">
+      <c r="Q13" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="116"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="82" t="s">
+      <c r="Q14" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="82"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="116"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="80"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
@@ -1870,18 +1867,18 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="82" t="s">
+      <c r="L15" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="84" t="s">
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="64"/>
@@ -1893,25 +1890,25 @@
       <c r="D16" s="46"/>
       <c r="E16" s="30"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96" t="s">
+      <c r="H16" s="104"/>
+      <c r="I16" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="95"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="50"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="97" t="s">
+      <c r="Q16" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="107"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="64"/>
@@ -1920,25 +1917,25 @@
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="102"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="89"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
-      <c r="P17" s="78" t="s">
+      <c r="P17" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
       <c r="S17" s="52"/>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
@@ -1969,58 +1966,58 @@
       <c r="V18" s="67"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="100" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="100" t="s">
+      <c r="G19" s="89"/>
+      <c r="H19" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="100" t="s">
+      <c r="I19" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="100" t="s">
+      <c r="J19" s="89"/>
+      <c r="K19" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="100" t="s">
+      <c r="L19" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="105"/>
-      <c r="N19" s="117" t="s">
+      <c r="M19" s="93"/>
+      <c r="N19" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="118"/>
-      <c r="P19" s="100" t="s">
+      <c r="O19" s="86"/>
+      <c r="P19" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="100" t="s">
+      <c r="Q19" s="89"/>
+      <c r="R19" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="122" t="s">
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="91" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="100" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="54" t="s">
         <v>34</v>
       </c>
@@ -2030,39 +2027,39 @@
       <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="100"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="100" t="s">
+      <c r="K20" s="84"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="102"/>
-      <c r="T20" s="100" t="s">
+      <c r="S20" s="89"/>
+      <c r="T20" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="105"/>
-      <c r="V20" s="123"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="92"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="108">
+      <c r="B21" s="94">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="54">
         <v>3</v>
       </c>
@@ -2084,69 +2081,32 @@
       <c r="K21" s="55">
         <v>9</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="81">
         <v>10</v>
       </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="112">
+      <c r="M21" s="82"/>
+      <c r="N21" s="96">
         <v>11</v>
       </c>
-      <c r="O21" s="113"/>
-      <c r="P21" s="110">
+      <c r="O21" s="97"/>
+      <c r="P21" s="81">
         <v>12</v>
       </c>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="110">
+      <c r="Q21" s="82"/>
+      <c r="R21" s="81">
         <v>13</v>
       </c>
-      <c r="S21" s="111"/>
-      <c r="T21" s="110">
+      <c r="S21" s="82"/>
+      <c r="T21" s="81">
         <v>14</v>
       </c>
-      <c r="U21" s="111"/>
+      <c r="U21" s="82"/>
       <c r="V21" s="68">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2163,6 +2123,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2179,18 +2176,18 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2202,10 +2199,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="141" t="s">
+      <c r="P1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="141"/>
+      <c r="Q1" s="126"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2230,19 +2227,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="125" t="s">
+      <c r="P2" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2273,10 +2270,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="139"/>
+      <c r="H4" s="124"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2301,10 +2298,10 @@
       <c r="D5" s="61"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="139"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2331,8 +2328,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2351,27 +2348,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
       <c r="R7" s="18"/>
       <c r="S7" s="59"/>
       <c r="T7" s="59"/>
@@ -2389,12 +2386,12 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="128" t="s">
+      <c r="K8" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="127"/>
+      <c r="L8" s="140"/>
       <c r="M8" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -2402,24 +2399,24 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="138" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>54</v>
@@ -2437,36 +2434,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="127"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="140"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="126" t="s">
+      <c r="P10" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2505,22 +2502,22 @@
       <c r="B12" s="129"/>
       <c r="C12" s="129"/>
       <c r="D12" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2552,19 +2549,19 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="126" t="s">
+      <c r="P13" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126" t="s">
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126" t="s">
+      <c r="S13" s="142"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="126"/>
+      <c r="V13" s="142"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="129" t="s">
@@ -2573,22 +2570,20 @@
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
       <c r="D14" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2620,25 +2615,25 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="126" t="s">
+      <c r="P15" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126" t="s">
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126" t="s">
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="126"/>
+      <c r="V15" s="142"/>
     </row>
     <row r="16" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="18"/>
@@ -2651,26 +2646,33 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2684,20 +2686,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -254,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,14 +275,6 @@
       <color rgb="FF080000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF080000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -308,34 +300,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="6"/>
-      <color rgb="FF080000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF080000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF080000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF080000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -345,22 +313,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -377,6 +329,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,11 +354,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF080000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF080000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF080000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF080000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -727,18 +779,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,31 +805,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -786,374 +895,318 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,651 +1515,689 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="A12:XFD12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="76" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="76" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="57" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="57" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="57" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="57" customWidth="1"/>
-    <col min="9" max="9" width="7" style="57" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="57" customWidth="1"/>
-    <col min="11" max="11" width="7" style="57" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="57" customWidth="1"/>
-    <col min="13" max="13" width="1" style="57" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="71" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="71" customWidth="1"/>
-    <col min="16" max="16" width="6" style="57" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="57" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="57" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="57" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="57" customWidth="1"/>
-    <col min="21" max="21" width="8" style="57" customWidth="1"/>
-    <col min="22" max="22" width="12" style="69" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="57" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="59" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="59" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="59" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="7" style="59" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="59" customWidth="1"/>
+    <col min="11" max="11" width="7" style="59" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="59" customWidth="1"/>
+    <col min="13" max="13" width="1" style="59" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="60" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="60" customWidth="1"/>
+    <col min="16" max="16" width="6" style="59" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="59" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="59" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="59" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="59" customWidth="1"/>
+    <col min="21" max="21" width="8" style="59" customWidth="1"/>
+    <col min="22" max="22" width="12" style="61" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="77"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="112" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="112" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="116" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="100" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="120">
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="73">
         <v>330212</v>
       </c>
-      <c r="U5" s="121"/>
-      <c r="V5" s="122"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="100" t="s">
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="100"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="63"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="84"/>
     </row>
     <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="64"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="87"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="100" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="64"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="87"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="100" t="s">
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="100"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="64"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="87"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="100" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="100"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="65"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="95"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="34" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="66"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="97"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="100" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="100"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="64"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="87"/>
     </row>
     <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="34" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="108" t="s">
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="109"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="105"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="109" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="109"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="105"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="48" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="109" t="s">
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="108" t="s">
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="64"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="87"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="103" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="103" t="s">
+      <c r="H16" s="102"/>
+      <c r="I16" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="105" t="s">
+      <c r="J16" s="102"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="106"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="64"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="87"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="98" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="100" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="64"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="87"/>
     </row>
     <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="67"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="123"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="83" t="s">
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="83" t="s">
+      <c r="G19" s="118"/>
+      <c r="H19" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="I19" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="83" t="s">
+      <c r="J19" s="118"/>
+      <c r="K19" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="83" t="s">
+      <c r="L19" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="93"/>
-      <c r="N19" s="85" t="s">
+      <c r="M19" s="124"/>
+      <c r="N19" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="86"/>
-      <c r="P19" s="83" t="s">
+      <c r="O19" s="126"/>
+      <c r="P19" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="83" t="s">
+      <c r="Q19" s="118"/>
+      <c r="R19" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="91" t="s">
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="127" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="128"/>
+      <c r="B20" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="54" t="s">
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="55" t="s">
+      <c r="H20" s="117"/>
+      <c r="I20" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="83" t="s">
+      <c r="K20" s="128"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="89"/>
-      <c r="T20" s="83" t="s">
+      <c r="S20" s="118"/>
+      <c r="T20" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="93"/>
-      <c r="V20" s="92"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="136"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="A21" s="130">
         <v>1</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="137">
         <v>2</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="54">
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="129">
         <v>3</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="130">
         <v>4</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="129">
         <v>5</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="130">
         <v>6</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="130">
         <v>7</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="129">
         <v>8</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="130">
         <v>9</v>
       </c>
-      <c r="L21" s="81">
+      <c r="L21" s="139">
         <v>10</v>
       </c>
-      <c r="M21" s="82"/>
-      <c r="N21" s="96">
+      <c r="M21" s="140"/>
+      <c r="N21" s="141">
         <v>11</v>
       </c>
-      <c r="O21" s="97"/>
-      <c r="P21" s="81">
+      <c r="O21" s="142"/>
+      <c r="P21" s="139">
         <v>12</v>
       </c>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="81">
+      <c r="Q21" s="140"/>
+      <c r="R21" s="139">
         <v>13</v>
       </c>
-      <c r="S21" s="82"/>
-      <c r="T21" s="81">
+      <c r="S21" s="140"/>
+      <c r="T21" s="139">
         <v>14</v>
       </c>
-      <c r="U21" s="82"/>
-      <c r="V21" s="68">
+      <c r="U21" s="140"/>
+      <c r="V21" s="143">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2123,45 +2214,8 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
@@ -2176,33 +2230,33 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="70"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="126" t="s">
+      <c r="P1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="126"/>
+      <c r="Q1" s="54"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2210,12 +2264,12 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2227,19 +2281,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="127" t="s">
+      <c r="P2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2270,10 +2324,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="124"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2295,13 +2349,13 @@
       <c r="C5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="124"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2328,8 +2382,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2348,32 +2402,32 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
     </row>
     <row r="8" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2386,11 +2440,11 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="139" t="s">
+      <c r="K8" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="140"/>
-      <c r="M8" s="60" t="s">
+      <c r="L8" s="40"/>
+      <c r="M8" s="32" t="s">
         <v>69</v>
       </c>
       <c r="N8" s="18"/>
@@ -2399,24 +2453,24 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="136" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>54</v>
@@ -2434,36 +2488,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="131" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="140"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="142" t="s">
+      <c r="P10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2496,28 +2550,28 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="75" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="137" t="s">
+      <c r="K12" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2549,41 +2603,41 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="142" t="s">
+      <c r="P13" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142" t="s">
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142" t="s">
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="142"/>
+      <c r="V13" s="39"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="17" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="137" t="s">
+      <c r="K14" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2615,19 +2669,19 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="142" t="s">
+      <c r="P15" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142" t="s">
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142" t="s">
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="142"/>
+      <c r="V15" s="39"/>
     </row>
     <row r="16" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -2651,28 +2705,21 @@
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2686,13 +2733,20 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Всего отпущено на сумму  </t>
-  </si>
-  <si>
-    <t>Сто двадцать две тысячи четыреста тринадцать рублей 40 копеек</t>
   </si>
   <si>
     <t>выданной</t>
@@ -889,62 +886,62 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1514,9 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2161,43 +2156,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2214,6 +2172,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2230,18 +2225,18 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2253,10 +2248,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="54"/>
+      <c r="Q1" s="39"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2281,19 +2276,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2324,10 +2319,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2352,10 +2347,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2382,8 +2377,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2402,27 +2397,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2440,12 +2435,12 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="40"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -2453,27 +2448,25 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -2488,50 +2481,50 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="40"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="P10" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>59</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2551,27 +2544,27 @@
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2586,14 +2579,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>59</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2603,41 +2596,41 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39" t="s">
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="V13" s="39"/>
+      <c r="V13" s="55"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="K14" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2652,14 +2645,14 @@
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
       <c r="D15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="9"/>
@@ -2669,25 +2662,25 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39" t="s">
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="V15" s="39"/>
+      <c r="V15" s="55"/>
     </row>
     <row r="16" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="18"/>
@@ -2700,26 +2693,33 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2733,20 +2733,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -223,9 +223,6 @@
     <t>Груз принял</t>
   </si>
   <si>
-    <t>Отпуск груза произведен</t>
-  </si>
-  <si>
     <t>Груз получил грузополучатель</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>Гл. бухгалтер</t>
+  </si>
+  <si>
+    <t>Отпуск груза произвел</t>
   </si>
 </sst>
 </file>
@@ -886,6 +886,51 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -895,53 +940,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,6 +2156,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2172,43 +2209,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2225,18 +2225,18 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2248,10 +2248,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="39"/>
+      <c r="Q1" s="54"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2276,19 +2276,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2319,10 +2319,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2347,10 +2347,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2377,8 +2377,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2397,27 +2397,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2435,12 +2435,12 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="53"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -2448,22 +2448,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>53</v>
@@ -2481,36 +2481,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2549,22 +2549,22 @@
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2596,41 +2596,41 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="55" t="s">
+      <c r="P13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55" t="s">
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55" t="s">
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="55"/>
+      <c r="V13" s="39"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
+      <c r="K14" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2662,25 +2662,25 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55" t="s">
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55" t="s">
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="V15" s="55"/>
+      <c r="V15" s="39"/>
     </row>
     <row r="16" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="18"/>
@@ -2693,33 +2693,26 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2733,13 +2726,20 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -886,62 +886,62 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1511,7 +1511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2156,43 +2158,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2209,6 +2174,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2231,12 +2233,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2248,10 +2250,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="54"/>
+      <c r="Q1" s="39"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2276,19 +2278,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2319,10 +2321,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2347,10 +2349,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2377,8 +2379,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2397,27 +2399,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2435,10 +2437,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="40"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="32" t="s">
         <v>67</v>
       </c>
@@ -2448,22 +2450,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>53</v>
@@ -2481,36 +2483,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="40"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2551,20 +2553,20 @@
       <c r="D12" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47" t="s">
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2596,19 +2598,19 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39" t="s">
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="39"/>
+      <c r="V13" s="55"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
@@ -2621,16 +2623,16 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2662,19 +2664,19 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39" t="s">
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39" t="s">
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="V15" s="39"/>
+      <c r="V15" s="55"/>
     </row>
     <row r="16" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -2698,21 +2700,28 @@
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2726,20 +2735,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Низ!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$19:$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
@@ -737,14 +737,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,23 +752,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -886,6 +886,271 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -942,268 +1207,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,648 +1514,646 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="57" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="59" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="7" style="59" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="59" customWidth="1"/>
-    <col min="11" max="11" width="7" style="59" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="59" customWidth="1"/>
-    <col min="13" max="13" width="1" style="59" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="60" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="60" customWidth="1"/>
-    <col min="16" max="16" width="6" style="59" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="59" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="59" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="59" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="59" customWidth="1"/>
-    <col min="21" max="21" width="8" style="59" customWidth="1"/>
-    <col min="22" max="22" width="12" style="61" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="4.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="38" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="40" customWidth="1"/>
+    <col min="9" max="9" width="7" style="40" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="7" style="40" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="1" style="40" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" style="41" customWidth="1"/>
+    <col min="15" max="15" width="3.5" style="41" customWidth="1"/>
+    <col min="16" max="16" width="6" style="40" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="40" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" style="40" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="40" customWidth="1"/>
+    <col min="21" max="21" width="8" style="40" customWidth="1"/>
+    <col min="22" max="22" width="12" style="42" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="39"/>
+    </row>
+    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-    </row>
-    <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="67" t="s">
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+    </row>
+    <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="68" t="s">
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
-    </row>
-    <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
+    </row>
+    <row r="5" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="73">
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="122">
         <v>330212</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="75"/>
-    </row>
-    <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79" t="s">
+      <c r="U5" s="123"/>
+      <c r="V5" s="124"/>
+    </row>
+    <row r="6" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="72" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="72"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="84"/>
-    </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79" t="s">
+      <c r="R6" s="102"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="87"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="57"/>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="72" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="87"/>
-    </row>
-    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="57"/>
+    </row>
+    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="72" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="72"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="87"/>
-    </row>
-    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89" t="s">
+      <c r="R9" s="102"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="57"/>
+    </row>
+    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="72" t="s">
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="72"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="95"/>
-    </row>
-    <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="R10" s="102"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="63"/>
+    </row>
+    <row r="11" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="79" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="97"/>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="72" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="65"/>
+    </row>
+    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="72"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="87"/>
-    </row>
-    <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="79" t="s">
+      <c r="R12" s="102"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="57"/>
+    </row>
+    <row r="13" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="100" t="s">
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="101"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="105"/>
-    </row>
-    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="R13" s="111"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="82"/>
+    </row>
+    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="101" t="s">
+      <c r="B14" s="112"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="101"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="105"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="108" t="s">
+      <c r="R14" s="111"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="82"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="101" t="s">
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="100" t="s">
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="87"/>
-    </row>
-    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="111" t="s">
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="57"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="111" t="s">
+      <c r="H16" s="106"/>
+      <c r="I16" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="102"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="113" t="s">
+      <c r="J16" s="106"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="114"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="87"/>
-    </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="116" t="s">
+      <c r="R16" s="108"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="57"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="72" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="87"/>
-    </row>
-    <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="123"/>
-    </row>
-    <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117" t="s">
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="57"/>
+    </row>
+    <row r="18" spans="1:22" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="75"/>
+    </row>
+    <row r="19" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="117" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="117" t="s">
+      <c r="G19" s="91"/>
+      <c r="H19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="117" t="s">
+      <c r="I19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="118"/>
-      <c r="K19" s="117" t="s">
+      <c r="J19" s="91"/>
+      <c r="K19" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="117" t="s">
+      <c r="L19" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="124"/>
-      <c r="N19" s="125" t="s">
+      <c r="M19" s="95"/>
+      <c r="N19" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="126"/>
-      <c r="P19" s="117" t="s">
+      <c r="O19" s="88"/>
+      <c r="P19" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="117" t="s">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="127" t="s">
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="93" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="128"/>
-      <c r="B20" s="117" t="s">
+    <row r="20" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+      <c r="B20" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="129" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="129" t="s">
+      <c r="G20" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="117"/>
-      <c r="I20" s="130" t="s">
+      <c r="H20" s="85"/>
+      <c r="I20" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="129" t="s">
+      <c r="J20" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="128"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="117" t="s">
+      <c r="K20" s="86"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="118"/>
-      <c r="T20" s="117" t="s">
+      <c r="S20" s="91"/>
+      <c r="T20" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="124"/>
-      <c r="V20" s="136"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130">
+      <c r="U20" s="95"/>
+      <c r="V20" s="94"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="77">
         <v>1</v>
       </c>
-      <c r="B21" s="137">
+      <c r="B21" s="96">
         <v>2</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="129">
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="76">
         <v>3</v>
       </c>
-      <c r="F21" s="130">
+      <c r="F21" s="77">
         <v>4</v>
       </c>
-      <c r="G21" s="129">
+      <c r="G21" s="76">
         <v>5</v>
       </c>
-      <c r="H21" s="130">
+      <c r="H21" s="77">
         <v>6</v>
       </c>
-      <c r="I21" s="130">
+      <c r="I21" s="77">
         <v>7</v>
       </c>
-      <c r="J21" s="129">
+      <c r="J21" s="76">
         <v>8</v>
       </c>
-      <c r="K21" s="130">
+      <c r="K21" s="77">
         <v>9</v>
       </c>
-      <c r="L21" s="139">
+      <c r="L21" s="83">
         <v>10</v>
       </c>
-      <c r="M21" s="140"/>
-      <c r="N21" s="141">
+      <c r="M21" s="84"/>
+      <c r="N21" s="98">
         <v>11</v>
       </c>
-      <c r="O21" s="142"/>
-      <c r="P21" s="139">
+      <c r="O21" s="99"/>
+      <c r="P21" s="83">
         <v>12</v>
       </c>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="139">
+      <c r="Q21" s="84"/>
+      <c r="R21" s="83">
         <v>13</v>
       </c>
-      <c r="S21" s="140"/>
-      <c r="T21" s="139">
+      <c r="S21" s="84"/>
+      <c r="T21" s="83">
         <v>14</v>
       </c>
-      <c r="U21" s="140"/>
-      <c r="V21" s="143">
+      <c r="U21" s="84"/>
+      <c r="V21" s="78">
         <v>15</v>
       </c>
     </row>
@@ -2226,19 +2227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2250,17 +2251,17 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="39"/>
+      <c r="Q1" s="128"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="25" t="s">
@@ -2278,19 +2279,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+    <row r="3" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2314,17 +2315,17 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2340,7 +2341,7 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="26"/>
       <c r="C5" s="25" t="s">
@@ -2349,10 +2350,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2370,7 +2371,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
@@ -2379,8 +2380,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2398,35 +2399,35 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
     </row>
-    <row r="8" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2437,10 +2438,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="53"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="32" t="s">
         <v>67</v>
       </c>
@@ -2450,22 +2451,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-    </row>
-    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+    </row>
+    <row r="9" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>53</v>
@@ -2482,39 +2483,39 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44" t="s">
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-    </row>
-    <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+    </row>
+    <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2544,29 +2545,29 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44" t="s">
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2576,7 +2577,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2598,41 +2599,41 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="55" t="s">
+      <c r="P13" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55" t="s">
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55" t="s">
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="55"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="V13" s="144"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2642,7 +2643,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
@@ -2664,21 +2665,21 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55" t="s">
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55" t="s">
+      <c r="S15" s="144"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="V15" s="55"/>
-    </row>
-    <row r="16" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="144"/>
+    </row>
+    <row r="16" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
@@ -2694,17 +2695,17 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="79" t="s">
         <v>64</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Коды</t>
   </si>
   <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в ВТБ 24 (ПАО) г. Москва к/с 30101810100000000716 БИК 044525716</t>
-  </si>
-  <si>
     <t>Форма по ОКУД</t>
   </si>
   <si>
@@ -242,12 +239,18 @@
   </si>
   <si>
     <t>Отпуск груза произвел</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в ВТБ (ПАО) г.Москва к/с 30101810700000000187 БИК 044525187</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в ВТБ (ПАО) г. Москва к/с 30101810700000000187 БИК 044525187</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
@@ -1013,6 +1016,114 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,18 +1133,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,9 +1145,6 @@
     <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,98 +1154,50 @@
     <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1160,53 +1208,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,153 +1519,153 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="38" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="40" customWidth="1"/>
     <col min="9" max="9" width="7" style="40" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="40" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="40" customWidth="1"/>
     <col min="11" max="11" width="7" style="40" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="40" customWidth="1"/>
     <col min="13" max="13" width="1" style="40" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" style="41" customWidth="1"/>
-    <col min="15" max="15" width="3.5" style="41" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="41" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="41" customWidth="1"/>
     <col min="16" max="16" width="6" style="40" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="40" customWidth="1"/>
-    <col min="19" max="19" width="3.1640625" style="40" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="40" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="40" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="40" customWidth="1"/>
     <col min="21" max="21" width="8" style="40" customWidth="1"/>
     <col min="22" max="22" width="12" style="42" customWidth="1"/>
-    <col min="23" max="16384" width="8.83203125" style="43"/>
+    <col min="23" max="16384" width="8.85546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
       <c r="O2" s="44"/>
       <c r="P2" s="45"/>
-      <c r="Q2" s="114" t="s">
+      <c r="Q2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-    </row>
-    <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="114" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+    </row>
+    <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
       <c r="O4" s="44"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
-      <c r="T4" s="118" t="s">
+      <c r="T4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="120"/>
-    </row>
-    <row r="5" spans="1:22" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="121" t="s">
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="45"/>
-      <c r="T5" s="122">
+      <c r="T5" s="91">
         <v>330212</v>
       </c>
-      <c r="U5" s="123"/>
-      <c r="V5" s="124"/>
-    </row>
-    <row r="6" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="92"/>
+      <c r="V5" s="93"/>
+    </row>
+    <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="E6" s="48"/>
       <c r="F6" s="49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
@@ -1674,23 +1677,23 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
-      <c r="Q6" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="102"/>
+      <c r="Q6" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="80"/>
       <c r="S6" s="45"/>
       <c r="T6" s="52"/>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -1709,45 +1712,45 @@
       <c r="U7" s="56"/>
       <c r="V7" s="57"/>
     </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
       <c r="S8" s="45"/>
       <c r="T8" s="55"/>
       <c r="U8" s="56"/>
       <c r="V8" s="57"/>
     </row>
-    <row r="9" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="112"/>
+    <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="94"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
@@ -1758,54 +1761,54 @@
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
       <c r="P9" s="45"/>
-      <c r="Q9" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="102"/>
+      <c r="Q9" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="80"/>
       <c r="S9" s="45"/>
       <c r="T9" s="55"/>
       <c r="U9" s="56"/>
       <c r="V9" s="57"/>
     </row>
-    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
+    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="51"/>
-      <c r="Q10" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="102"/>
+      <c r="Q10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="80"/>
       <c r="S10" s="45"/>
       <c r="T10" s="62"/>
       <c r="U10" s="48"/>
       <c r="V10" s="63"/>
     </row>
-    <row r="11" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="112"/>
+    <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="94"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
       <c r="G11" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
@@ -1816,40 +1819,40 @@
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="45"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="45"/>
       <c r="T11" s="64"/>
       <c r="U11" s="45"/>
       <c r="V11" s="65"/>
     </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
+    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
       <c r="P12" s="51"/>
-      <c r="Q12" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="102"/>
+      <c r="Q12" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="80"/>
       <c r="S12" s="45"/>
       <c r="T12" s="55"/>
       <c r="U12" s="56"/>
       <c r="V12" s="57"/>
     </row>
-    <row r="13" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
       <c r="C13" s="58"/>
@@ -1857,7 +1860,7 @@
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
       <c r="G13" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
@@ -1868,44 +1871,44 @@
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="110" t="s">
+      <c r="Q13" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="84"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="118"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="111"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="82"/>
-    </row>
-    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="111"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="84"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="118"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="67"/>
       <c r="C15" s="58"/>
@@ -1913,87 +1916,87 @@
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
       <c r="G15" s="69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
       <c r="J15" s="70"/>
       <c r="K15" s="59"/>
-      <c r="L15" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
+      <c r="L15" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
       <c r="T15" s="55"/>
       <c r="U15" s="56"/>
       <c r="V15" s="57"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
       <c r="E16" s="45"/>
       <c r="F16" s="68"/>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="106"/>
+      <c r="J16" s="97"/>
       <c r="K16" s="71"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="108"/>
-      <c r="S16" s="109"/>
+      <c r="Q16" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
       <c r="T16" s="55"/>
       <c r="U16" s="56"/>
       <c r="V16" s="57"/>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
-      <c r="D17" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="91"/>
+      <c r="D17" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="104"/>
       <c r="K17" s="72"/>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
+      <c r="P17" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
       <c r="S17" s="73"/>
       <c r="T17" s="55"/>
       <c r="U17" s="56"/>
       <c r="V17" s="57"/>
     </row>
-    <row r="18" spans="1:22" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="66"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -2017,101 +2020,101 @@
       <c r="U18" s="74"/>
       <c r="V18" s="75"/>
     </row>
-    <row r="19" spans="1:22" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="85" t="s">
+      <c r="G19" s="104"/>
+      <c r="H19" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="85" t="s">
+      <c r="I19" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="J19" s="104"/>
+      <c r="K19" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="85" t="s">
+      <c r="L19" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="M19" s="107"/>
+      <c r="N19" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="87" t="s">
+      <c r="O19" s="120"/>
+      <c r="P19" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="85" t="s">
+      <c r="Q19" s="104"/>
+      <c r="R19" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="85" t="s">
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="93" t="s">
+    </row>
+    <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="103"/>
+      <c r="B20" s="102" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85" t="s">
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="76" t="s">
+      <c r="F20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="G20" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="H20" s="102"/>
+      <c r="I20" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="77" t="s">
+      <c r="J20" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="K20" s="103"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="85" t="s">
+      <c r="S20" s="104"/>
+      <c r="T20" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="91"/>
-      <c r="T20" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="95"/>
-      <c r="V20" s="94"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="107"/>
+      <c r="V20" s="125"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77">
         <v>1</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="110">
         <v>2</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
@@ -2133,32 +2136,69 @@
       <c r="K21" s="77">
         <v>9</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="112">
         <v>10</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="98">
+      <c r="M21" s="113"/>
+      <c r="N21" s="114">
         <v>11</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="83">
+      <c r="O21" s="115"/>
+      <c r="P21" s="112">
         <v>12</v>
       </c>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="83">
+      <c r="Q21" s="113"/>
+      <c r="R21" s="112">
         <v>13</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83">
+      <c r="S21" s="113"/>
+      <c r="T21" s="112">
         <v>14</v>
       </c>
-      <c r="U21" s="84"/>
+      <c r="U21" s="113"/>
       <c r="V21" s="78">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2175,43 +2215,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2231,15 +2234,15 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+    <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2251,21 +2254,21 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="128"/>
+      <c r="P1" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="143"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="14"/>
@@ -2279,26 +2282,26 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="129" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
+      <c r="P2" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
+    <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -2315,17 +2318,17 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="126"/>
+      <c r="G4" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="141"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2341,24 +2344,24 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="26"/>
       <c r="C5" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="126"/>
+      <c r="G5" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="141"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -2371,22 +2374,22 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -2399,35 +2402,35 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+    <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
       <c r="G7" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
     </row>
-    <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2438,12 +2441,12 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="142"/>
+      <c r="K8" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="129"/>
       <c r="M8" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -2451,25 +2454,25 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-    </row>
-    <row r="9" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+    </row>
+    <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -2483,51 +2486,51 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134" t="s">
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-    </row>
-    <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+    </row>
+    <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2545,29 +2548,29 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
     </row>
-    <row r="12" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="131"/>
       <c r="C12" s="131"/>
       <c r="D12" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="136" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2577,19 +2580,19 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2599,41 +2602,41 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="144" t="s">
+      <c r="P13" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144" t="s">
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" s="144"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="128"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="131" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="131"/>
       <c r="C14" s="131"/>
       <c r="D14" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="139" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
+      <c r="K14" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2643,19 +2646,19 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
       <c r="D15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="9"/>
@@ -2665,25 +2668,25 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="144" t="s">
+      <c r="P15" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144" t="s">
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="V15" s="144"/>
-    </row>
-    <row r="16" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="128"/>
+    </row>
+    <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="18"/>
@@ -2696,33 +2699,26 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2736,13 +2732,20 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -241,10 +241,7 @@
     <t>Отпуск груза произвел</t>
   </si>
   <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в ВТБ (ПАО) г.Москва к/с 30101810700000000187 БИК 044525187</t>
-  </si>
-  <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в ВТБ (ПАО) г. Москва к/с 30101810700000000187 БИК 044525187</t>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал № 7701 Банка ВТБ (ПАО)  г. Москва к/с 30101810345250000745 БИК 044525745</t>
   </si>
 </sst>
 </file>
@@ -1016,9 +1013,108 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,13 +1124,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,158 +1148,65 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,7 +1514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1549,114 +1548,114 @@
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="44"/>
       <c r="P2" s="45"/>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="81" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
       <c r="O4" s="44"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
-      <c r="T4" s="87" t="s">
+      <c r="T4" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="80" t="s">
+      <c r="A5" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
       <c r="S5" s="45"/>
-      <c r="T5" s="91">
+      <c r="T5" s="122">
         <v>330212</v>
       </c>
-      <c r="U5" s="92"/>
-      <c r="V5" s="93"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="124"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
@@ -1677,10 +1676,10 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
-      <c r="Q6" s="80" t="s">
+      <c r="Q6" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="80"/>
+      <c r="R6" s="102"/>
       <c r="S6" s="45"/>
       <c r="T6" s="52"/>
       <c r="U6" s="53"/>
@@ -1713,38 +1712,38 @@
       <c r="V7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="80" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
       <c r="S8" s="45"/>
       <c r="T8" s="55"/>
       <c r="U8" s="56"/>
       <c r="V8" s="57"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="59"/>
@@ -1761,48 +1760,48 @@
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
       <c r="P9" s="45"/>
-      <c r="Q9" s="80" t="s">
+      <c r="Q9" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="80"/>
+      <c r="R9" s="102"/>
       <c r="S9" s="45"/>
       <c r="T9" s="55"/>
       <c r="U9" s="56"/>
       <c r="V9" s="57"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95" t="s">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
       <c r="P10" s="51"/>
-      <c r="Q10" s="80" t="s">
+      <c r="Q10" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="80"/>
+      <c r="R10" s="102"/>
       <c r="S10" s="45"/>
       <c r="T10" s="62"/>
       <c r="U10" s="48"/>
       <c r="V10" s="63"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
@@ -1819,34 +1818,34 @@
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="45"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
       <c r="S11" s="45"/>
       <c r="T11" s="64"/>
       <c r="U11" s="45"/>
       <c r="V11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
       <c r="P12" s="51"/>
-      <c r="Q12" s="80" t="s">
+      <c r="Q12" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="80"/>
+      <c r="R12" s="102"/>
       <c r="S12" s="45"/>
       <c r="T12" s="55"/>
       <c r="U12" s="56"/>
@@ -1871,42 +1870,42 @@
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="86" t="s">
+      <c r="Q13" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="84"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="118"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="82"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
       <c r="P14" s="68"/>
-      <c r="Q14" s="84" t="s">
+      <c r="Q14" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="84"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="118"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="82"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
@@ -1922,18 +1921,18 @@
       <c r="I15" s="70"/>
       <c r="J15" s="70"/>
       <c r="K15" s="59"/>
-      <c r="L15" s="84" t="s">
+      <c r="L15" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86" t="s">
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
       <c r="T15" s="55"/>
       <c r="U15" s="56"/>
       <c r="V15" s="57"/>
@@ -1945,25 +1944,25 @@
       <c r="D16" s="67"/>
       <c r="E16" s="45"/>
       <c r="F16" s="68"/>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98" t="s">
+      <c r="H16" s="106"/>
+      <c r="I16" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="97"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="71"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="99" t="s">
+      <c r="Q16" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="109"/>
       <c r="T16" s="55"/>
       <c r="U16" s="56"/>
       <c r="V16" s="57"/>
@@ -1972,25 +1971,25 @@
       <c r="A17" s="66"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="104"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="72"/>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="80" t="s">
+      <c r="P17" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
       <c r="S17" s="73"/>
       <c r="T17" s="55"/>
       <c r="U17" s="56"/>
@@ -2021,58 +2020,58 @@
       <c r="V18" s="75"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="102" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="102" t="s">
+      <c r="G19" s="91"/>
+      <c r="H19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="102" t="s">
+      <c r="I19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="104"/>
-      <c r="K19" s="102" t="s">
+      <c r="J19" s="91"/>
+      <c r="K19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="102" t="s">
+      <c r="L19" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="107"/>
-      <c r="N19" s="119" t="s">
+      <c r="M19" s="95"/>
+      <c r="N19" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="120"/>
-      <c r="P19" s="102" t="s">
+      <c r="O19" s="88"/>
+      <c r="P19" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="102" t="s">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="124" t="s">
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="93" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
-      <c r="B20" s="102" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="76" t="s">
         <v>33</v>
       </c>
@@ -2082,39 +2081,39 @@
       <c r="G20" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="102"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="77" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="103"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="102" t="s">
+      <c r="K20" s="86"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="104"/>
-      <c r="T20" s="102" t="s">
+      <c r="S20" s="91"/>
+      <c r="T20" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="107"/>
-      <c r="V20" s="125"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="94"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77">
         <v>1</v>
       </c>
-      <c r="B21" s="110">
+      <c r="B21" s="96">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
@@ -2136,69 +2135,32 @@
       <c r="K21" s="77">
         <v>9</v>
       </c>
-      <c r="L21" s="112">
+      <c r="L21" s="83">
         <v>10</v>
       </c>
-      <c r="M21" s="113"/>
-      <c r="N21" s="114">
+      <c r="M21" s="84"/>
+      <c r="N21" s="98">
         <v>11</v>
       </c>
-      <c r="O21" s="115"/>
-      <c r="P21" s="112">
+      <c r="O21" s="99"/>
+      <c r="P21" s="83">
         <v>12</v>
       </c>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="112">
+      <c r="Q21" s="84"/>
+      <c r="R21" s="83">
         <v>13</v>
       </c>
-      <c r="S21" s="113"/>
-      <c r="T21" s="112">
+      <c r="S21" s="84"/>
+      <c r="T21" s="83">
         <v>14</v>
       </c>
-      <c r="U21" s="113"/>
+      <c r="U21" s="84"/>
       <c r="V21" s="78">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2215,6 +2177,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2237,12 +2236,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2254,10 +2253,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="143" t="s">
+      <c r="P1" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="143"/>
+      <c r="Q1" s="128"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2282,19 +2281,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="127" t="s">
+      <c r="P2" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2325,10 +2324,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="141"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2353,10 +2352,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="141"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2383,8 +2382,8 @@
         <v>43</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2403,27 +2402,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2441,10 +2440,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="130" t="s">
+      <c r="K8" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="129"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="32" t="s">
         <v>66</v>
       </c>
@@ -2454,22 +2453,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="129"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>52</v>
@@ -2487,36 +2486,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136" t="s">
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="129"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="128" t="s">
+      <c r="P10" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2557,20 +2556,20 @@
       <c r="D12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136" t="s">
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="133" t="s">
+      <c r="K12" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2602,19 +2601,19 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="128" t="s">
+      <c r="P13" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128" t="s">
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128" t="s">
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="128"/>
+      <c r="V13" s="144"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="131" t="s">
@@ -2627,16 +2626,16 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="133" t="s">
+      <c r="K14" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2668,19 +2667,19 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128" t="s">
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128" t="s">
+      <c r="S15" s="144"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="128"/>
+      <c r="V15" s="144"/>
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -2704,21 +2703,28 @@
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2732,20 +2738,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -154,9 +154,6 @@
     <t>Сумма руб.коп.</t>
   </si>
   <si>
-    <t>Уведомление! Право денежного требования по оплате нижеуказанных поставленных товаров (оказанных услуг) уступлено Поставщиком ПАО "МОСКОВСКИЙ КРЕДИТНЫЙ БАНК", оплата должна производиться исключительно по следующим реквизитам : ПАО "Московский кредитный банк" № 47401810100000003292, к/с 30101810745250000659  в Отделении 1 Главного управления Центрального банка Российской Федерации по Центральному федеральному округу г. Москва, БИК 044525659, ИНН 7734202860, КПП 770801001</t>
-  </si>
-  <si>
     <t>Товарная накладная имеет приложение на</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал № 7701 Банка ВТБ (ПАО)  г. Москва к/с 30101810345250000745 БИК 044525745</t>
+  </si>
+  <si>
+    <t>Уведомление! Право денежного требования по оплате нижеуказанных поставленных товаров (оказанных услуг) уступлено Поставщиком ПАО "МОСКОВСКИЙ КРЕДИТНЫЙ БАНК", оплата должна производиться исключительно по следующим реквизитам : ПАО "Московский кредитный банк" № 47401810100000003292, к/с 30101810745250000659  в Главном управлении Центрального банка Российской Федерации по Центральному федеральному округу г.Москва, БИК 044525659, ИНН 7734202860, КПП 770801001</t>
   </si>
 </sst>
 </file>
@@ -1013,6 +1013,111 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,18 +1127,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,9 +1139,6 @@
     <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,98 +1148,50 @@
     <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1160,53 +1202,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,114 +1548,114 @@
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="A2" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="44"/>
       <c r="P2" s="45"/>
-      <c r="Q2" s="114" t="s">
+      <c r="Q2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="114" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="44"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
-      <c r="T4" s="118" t="s">
+      <c r="T4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="120"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="102" t="s">
+      <c r="A5" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="45"/>
-      <c r="T5" s="122">
+      <c r="T5" s="90">
         <v>330212</v>
       </c>
-      <c r="U5" s="123"/>
-      <c r="V5" s="124"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="92"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
@@ -1676,10 +1676,10 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
-      <c r="Q6" s="102" t="s">
+      <c r="Q6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="102"/>
+      <c r="R6" s="80"/>
       <c r="S6" s="45"/>
       <c r="T6" s="52"/>
       <c r="U6" s="53"/>
@@ -1712,38 +1712,38 @@
       <c r="V7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="102" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
       <c r="S8" s="45"/>
       <c r="T8" s="55"/>
       <c r="U8" s="56"/>
       <c r="V8" s="57"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="112"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="59"/>
@@ -1760,48 +1760,48 @@
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
       <c r="P9" s="45"/>
-      <c r="Q9" s="102" t="s">
+      <c r="Q9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="102"/>
+      <c r="R9" s="80"/>
       <c r="S9" s="45"/>
       <c r="T9" s="55"/>
       <c r="U9" s="56"/>
       <c r="V9" s="57"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
       <c r="P10" s="51"/>
-      <c r="Q10" s="102" t="s">
+      <c r="Q10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="102"/>
+      <c r="R10" s="80"/>
       <c r="S10" s="45"/>
       <c r="T10" s="62"/>
       <c r="U10" s="48"/>
       <c r="V10" s="63"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="112"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
@@ -1818,34 +1818,34 @@
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="45"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="45"/>
       <c r="T11" s="64"/>
       <c r="U11" s="45"/>
       <c r="V11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
       <c r="P12" s="51"/>
-      <c r="Q12" s="102" t="s">
+      <c r="Q12" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="102"/>
+      <c r="R12" s="80"/>
       <c r="S12" s="45"/>
       <c r="T12" s="55"/>
       <c r="U12" s="56"/>
@@ -1870,42 +1870,42 @@
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="110" t="s">
+      <c r="Q13" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="111"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="117"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
       <c r="P14" s="68"/>
-      <c r="Q14" s="111" t="s">
+      <c r="Q14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="111"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="117"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
@@ -1921,18 +1921,18 @@
       <c r="I15" s="70"/>
       <c r="J15" s="70"/>
       <c r="K15" s="59"/>
-      <c r="L15" s="111" t="s">
+      <c r="L15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="110" t="s">
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
       <c r="T15" s="55"/>
       <c r="U15" s="56"/>
       <c r="V15" s="57"/>
@@ -1944,25 +1944,25 @@
       <c r="D16" s="67"/>
       <c r="E16" s="45"/>
       <c r="F16" s="68"/>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="105" t="s">
+      <c r="H16" s="96"/>
+      <c r="I16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="106"/>
+      <c r="J16" s="96"/>
       <c r="K16" s="71"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="107" t="s">
+      <c r="Q16" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="108"/>
-      <c r="S16" s="109"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
       <c r="T16" s="55"/>
       <c r="U16" s="56"/>
       <c r="V16" s="57"/>
@@ -1971,25 +1971,25 @@
       <c r="A17" s="66"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="91"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="103"/>
       <c r="K17" s="72"/>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="102" t="s">
+      <c r="P17" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
       <c r="S17" s="73"/>
       <c r="T17" s="55"/>
       <c r="U17" s="56"/>
@@ -2020,58 +2020,58 @@
       <c r="V18" s="75"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="85" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="85" t="s">
+      <c r="G19" s="103"/>
+      <c r="H19" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="85" t="s">
+      <c r="J19" s="103"/>
+      <c r="K19" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="106"/>
+      <c r="N19" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="85" t="s">
+      <c r="O19" s="119"/>
+      <c r="P19" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="85" t="s">
+      <c r="Q19" s="103"/>
+      <c r="R19" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="93" t="s">
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="123" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="76" t="s">
         <v>33</v>
       </c>
@@ -2081,39 +2081,39 @@
       <c r="G20" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="77" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="85" t="s">
+      <c r="K20" s="102"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="91"/>
-      <c r="T20" s="85" t="s">
+      <c r="S20" s="103"/>
+      <c r="T20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="95"/>
-      <c r="V20" s="94"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="124"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77">
         <v>1</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="109">
         <v>2</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
@@ -2135,32 +2135,69 @@
       <c r="K21" s="77">
         <v>9</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="111">
         <v>10</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="98">
+      <c r="M21" s="112"/>
+      <c r="N21" s="113">
         <v>11</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="83">
+      <c r="O21" s="114"/>
+      <c r="P21" s="111">
         <v>12</v>
       </c>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="83">
+      <c r="Q21" s="112"/>
+      <c r="R21" s="111">
         <v>13</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83">
+      <c r="S21" s="112"/>
+      <c r="T21" s="111">
         <v>14</v>
       </c>
-      <c r="U21" s="84"/>
+      <c r="U21" s="112"/>
       <c r="V21" s="78">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2177,43 +2214,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2236,12 +2236,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="A1" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2253,10 +2253,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="128"/>
+      <c r="P1" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="142"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2267,7 +2267,7 @@
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="14"/>
@@ -2281,26 +2281,26 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
+      <c r="P2" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -2324,10 +2324,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="126"/>
+      <c r="G4" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="140"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2347,20 +2347,20 @@
       <c r="A5" s="22"/>
       <c r="B5" s="26"/>
       <c r="C5" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="126"/>
+      <c r="G5" s="140" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="140"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -2379,16 +2379,16 @@
       <c r="C6" s="23"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -2402,27 +2402,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="A7" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2440,12 +2440,12 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="142"/>
+      <c r="K8" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="128"/>
       <c r="M8" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -2453,25 +2453,25 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="A9" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -2486,50 +2486,50 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="136" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="128"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
+      <c r="P10" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2548,28 +2548,28 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133" t="s">
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2584,14 +2584,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2601,41 +2601,41 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="144" t="s">
+      <c r="P13" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144" t="s">
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" s="144"/>
+      <c r="V13" s="127"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
+      <c r="A14" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
+      <c r="K14" s="132" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2650,14 +2650,14 @@
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
       <c r="D15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="9"/>
@@ -2667,25 +2667,25 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="144" t="s">
+      <c r="P15" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144" t="s">
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" s="144"/>
+      <c r="V15" s="127"/>
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="18"/>
@@ -2698,33 +2698,26 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2738,13 +2731,20 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -211,9 +211,6 @@
     <t>Главный (старший) бухгалтер</t>
   </si>
   <si>
-    <t>Жанчибон Т.Д.</t>
-  </si>
-  <si>
     <t>Груз принял</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Ген. Директор</t>
   </si>
   <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
     <t>от "____"                       20____г.</t>
   </si>
   <si>
@@ -242,6 +236,12 @@
   </si>
   <si>
     <t>Уведомление! Право денежного требования по оплате нижеуказанных поставленных товаров (оказанных услуг) уступлено Поставщиком ПАО "МОСКОВСКИЙ КРЕДИТНЫЙ БАНК", оплата должна производиться исключительно по следующим реквизитам : ПАО "Московский кредитный банк" № 47401810100000003292, к/с 30101810745250000659  в Главном управлении Центрального банка Российской Федерации по Центральному федеральному округу г.Москва, БИК 044525659, ИНН 7734202860, КПП 770801001</t>
+  </si>
+  <si>
+    <t>Косяченко В.А.</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
   </si>
 </sst>
 </file>
@@ -1013,22 +1013,118 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,161 +1148,65 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,114 +1548,114 @@
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="44"/>
       <c r="P2" s="45"/>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="81" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
       <c r="O4" s="44"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
-      <c r="T4" s="86" t="s">
+      <c r="T4" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="80" t="s">
+      <c r="A5" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
       <c r="S5" s="45"/>
-      <c r="T5" s="90">
+      <c r="T5" s="122">
         <v>330212</v>
       </c>
-      <c r="U5" s="91"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="124"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
@@ -1676,10 +1676,10 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
-      <c r="Q6" s="80" t="s">
+      <c r="Q6" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="80"/>
+      <c r="R6" s="102"/>
       <c r="S6" s="45"/>
       <c r="T6" s="52"/>
       <c r="U6" s="53"/>
@@ -1712,38 +1712,38 @@
       <c r="V7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="80" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
       <c r="S8" s="45"/>
       <c r="T8" s="55"/>
       <c r="U8" s="56"/>
       <c r="V8" s="57"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="59"/>
@@ -1760,48 +1760,48 @@
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
       <c r="P9" s="45"/>
-      <c r="Q9" s="80" t="s">
+      <c r="Q9" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="80"/>
+      <c r="R9" s="102"/>
       <c r="S9" s="45"/>
       <c r="T9" s="55"/>
       <c r="U9" s="56"/>
       <c r="V9" s="57"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
       <c r="P10" s="51"/>
-      <c r="Q10" s="80" t="s">
+      <c r="Q10" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="80"/>
+      <c r="R10" s="102"/>
       <c r="S10" s="45"/>
       <c r="T10" s="62"/>
       <c r="U10" s="48"/>
       <c r="V10" s="63"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="93"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
@@ -1818,34 +1818,34 @@
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="45"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
       <c r="S11" s="45"/>
       <c r="T11" s="64"/>
       <c r="U11" s="45"/>
       <c r="V11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
       <c r="P12" s="51"/>
-      <c r="Q12" s="80" t="s">
+      <c r="Q12" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="80"/>
+      <c r="R12" s="102"/>
       <c r="S12" s="45"/>
       <c r="T12" s="55"/>
       <c r="U12" s="56"/>
@@ -1870,42 +1870,42 @@
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="85" t="s">
+      <c r="Q13" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="83"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="117"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="82"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
       <c r="P14" s="68"/>
-      <c r="Q14" s="83" t="s">
+      <c r="Q14" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="83"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="117"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="82"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
@@ -1921,18 +1921,18 @@
       <c r="I15" s="70"/>
       <c r="J15" s="70"/>
       <c r="K15" s="59"/>
-      <c r="L15" s="83" t="s">
+      <c r="L15" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85" t="s">
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
       <c r="T15" s="55"/>
       <c r="U15" s="56"/>
       <c r="V15" s="57"/>
@@ -1944,25 +1944,25 @@
       <c r="D16" s="67"/>
       <c r="E16" s="45"/>
       <c r="F16" s="68"/>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97" t="s">
+      <c r="H16" s="106"/>
+      <c r="I16" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="96"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="71"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="98" t="s">
+      <c r="Q16" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="109"/>
       <c r="T16" s="55"/>
       <c r="U16" s="56"/>
       <c r="V16" s="57"/>
@@ -1971,25 +1971,25 @@
       <c r="A17" s="66"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="103"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="72"/>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="80" t="s">
+      <c r="P17" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
       <c r="S17" s="73"/>
       <c r="T17" s="55"/>
       <c r="U17" s="56"/>
@@ -2020,58 +2020,58 @@
       <c r="V18" s="75"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="101" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="101" t="s">
+      <c r="G19" s="91"/>
+      <c r="H19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="101" t="s">
+      <c r="J19" s="91"/>
+      <c r="K19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="106"/>
-      <c r="N19" s="118" t="s">
+      <c r="M19" s="95"/>
+      <c r="N19" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="119"/>
-      <c r="P19" s="101" t="s">
+      <c r="O19" s="88"/>
+      <c r="P19" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="101" t="s">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="123" t="s">
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="93" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
-      <c r="B20" s="101" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="76" t="s">
         <v>33</v>
       </c>
@@ -2081,39 +2081,39 @@
       <c r="G20" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="101"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="77" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="102"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="101" t="s">
+      <c r="K20" s="86"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="103"/>
-      <c r="T20" s="101" t="s">
+      <c r="S20" s="91"/>
+      <c r="T20" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="106"/>
-      <c r="V20" s="124"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="94"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77">
         <v>1</v>
       </c>
-      <c r="B21" s="109">
+      <c r="B21" s="96">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
@@ -2135,69 +2135,32 @@
       <c r="K21" s="77">
         <v>9</v>
       </c>
-      <c r="L21" s="111">
+      <c r="L21" s="83">
         <v>10</v>
       </c>
-      <c r="M21" s="112"/>
-      <c r="N21" s="113">
+      <c r="M21" s="84"/>
+      <c r="N21" s="98">
         <v>11</v>
       </c>
-      <c r="O21" s="114"/>
-      <c r="P21" s="111">
+      <c r="O21" s="99"/>
+      <c r="P21" s="83">
         <v>12</v>
       </c>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="111">
+      <c r="Q21" s="84"/>
+      <c r="R21" s="83">
         <v>13</v>
       </c>
-      <c r="S21" s="112"/>
-      <c r="T21" s="111">
+      <c r="S21" s="84"/>
+      <c r="T21" s="83">
         <v>14</v>
       </c>
-      <c r="U21" s="112"/>
+      <c r="U21" s="84"/>
       <c r="V21" s="78">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2214,6 +2177,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2230,18 +2230,18 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D9" sqref="D9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2253,10 +2253,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="142" t="s">
+      <c r="P1" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="142"/>
+      <c r="Q1" s="128"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2281,19 +2281,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="126" t="s">
+      <c r="P2" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2324,10 +2324,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="140"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2352,10 +2352,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2382,8 +2382,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2402,27 +2402,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2440,12 +2440,12 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="129" t="s">
+      <c r="K8" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="128"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -2453,22 +2453,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -2486,36 +2486,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="128"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="127" t="s">
+      <c r="P10" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2548,28 +2548,28 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2601,41 +2601,41 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="127" t="s">
+      <c r="P13" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127" t="s">
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127" t="s">
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="127"/>
+      <c r="V13" s="144"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
+      <c r="A14" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
+      <c r="K14" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2667,25 +2667,25 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="127" t="s">
+      <c r="P15" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127" t="s">
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127" t="s">
+      <c r="S15" s="144"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="V15" s="127"/>
+      <c r="V15" s="144"/>
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="18"/>
@@ -2698,26 +2698,33 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2731,20 +2738,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -226,9 +226,6 @@
     <t>от "____"                       20____г.</t>
   </si>
   <si>
-    <t>Гл. бухгалтер</t>
-  </si>
-  <si>
     <t>Отпуск груза произвел</t>
   </si>
   <si>
@@ -242,6 +239,12 @@
   </si>
   <si>
     <t>Ответственный</t>
+  </si>
+  <si>
+    <t>Гл. бухгалтер по</t>
+  </si>
+  <si>
+    <t>дог. №2 от 01.03.2019</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -883,273 +886,333 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1160,53 +1223,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,647 +1538,684 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="38" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="7" style="40" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="7" style="40" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="40" customWidth="1"/>
-    <col min="13" max="13" width="1" style="40" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="41" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="41" customWidth="1"/>
-    <col min="16" max="16" width="6" style="40" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="40" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="40" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="40" customWidth="1"/>
-    <col min="21" max="21" width="8" style="40" customWidth="1"/>
-    <col min="22" max="22" width="12" style="42" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="43"/>
+    <col min="1" max="1" width="4.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="37" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="7" style="39" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="7" style="39" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="1" style="39" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="40" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="6" style="39" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="39" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="39" customWidth="1"/>
+    <col min="21" max="21" width="8" style="39" customWidth="1"/>
+    <col min="22" max="22" width="12" style="41" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="39"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="114" t="s">
+      <c r="A2" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="114" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="118" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="120"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="102" t="s">
+      <c r="A5" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="122">
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="96">
         <v>330212</v>
       </c>
-      <c r="U5" s="123"/>
-      <c r="V5" s="124"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="102" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="102"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="54"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="53"/>
     </row>
     <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="57"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="102" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="57"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60" t="s">
+      <c r="B9" s="99"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="102" t="s">
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="102"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="57"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="102" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="102"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="63"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="62"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="49" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="65"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="102" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="102"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="57"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
     </row>
     <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="49" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="110" t="s">
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="111"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="82"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="123"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="111" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="111"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="123"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="69" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="111" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="110" t="s">
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="57"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="105" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="105" t="s">
+      <c r="H16" s="102"/>
+      <c r="I16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="107" t="s">
+      <c r="J16" s="102"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="108"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="57"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="100" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="102" t="s">
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="57"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="75"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="85" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="85" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="85" t="s">
+      <c r="J19" s="109"/>
+      <c r="K19" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="112"/>
+      <c r="N19" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="85" t="s">
+      <c r="O19" s="125"/>
+      <c r="P19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="85" t="s">
+      <c r="Q19" s="109"/>
+      <c r="R19" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="93" t="s">
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="129" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="108"/>
+      <c r="B20" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="76" t="s">
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="77" t="s">
+      <c r="H20" s="107"/>
+      <c r="I20" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="85" t="s">
+      <c r="K20" s="108"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="91"/>
-      <c r="T20" s="85" t="s">
+      <c r="S20" s="109"/>
+      <c r="T20" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="95"/>
-      <c r="V20" s="94"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="130"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
+      <c r="A21" s="76">
         <v>1</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="115">
         <v>2</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="76">
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="75">
         <v>3</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="76">
         <v>4</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="75">
         <v>5</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="76">
         <v>6</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="76">
         <v>7</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="75">
         <v>8</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="76">
         <v>9</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="117">
         <v>10</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="98">
+      <c r="M21" s="118"/>
+      <c r="N21" s="119">
         <v>11</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="83">
+      <c r="O21" s="120"/>
+      <c r="P21" s="117">
         <v>12</v>
       </c>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="83">
+      <c r="Q21" s="118"/>
+      <c r="R21" s="117">
         <v>13</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83">
+      <c r="S21" s="118"/>
+      <c r="T21" s="117">
         <v>14</v>
       </c>
-      <c r="U21" s="84"/>
-      <c r="V21" s="78">
+      <c r="U21" s="118"/>
+      <c r="V21" s="77">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2177,43 +2232,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2227,21 +2245,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:I9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2253,10 +2271,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="128"/>
+      <c r="Q1" s="148"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2281,19 +2299,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2324,10 +2342,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2352,10 +2370,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="126"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2382,8 +2400,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2402,27 +2420,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
       <c r="G7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2440,10 +2458,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="142"/>
+      <c r="L8" s="134"/>
       <c r="M8" s="32" t="s">
         <v>63</v>
       </c>
@@ -2453,22 +2471,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -2486,36 +2504,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133" t="s">
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="134"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="144" t="s">
+      <c r="P10" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2547,187 +2565,206 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+    <row r="12" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="36" t="s">
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="138" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="133"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133" t="s">
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="V13" s="144"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="139" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="V15" s="144"/>
-    </row>
-    <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="79" t="s">
+      <c r="N16" s="18"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="133"/>
+    </row>
+    <row r="17" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:Q7"/>
@@ -2736,15 +2773,22 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC618A-47C3-4ABB-8B53-210B04BBB604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -245,12 +246,15 @@
   </si>
   <si>
     <t>дог. №2 от 01.03.2019</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
@@ -1031,9 +1035,108 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,13 +1146,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,158 +1170,65 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,11 +1533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,114 +1570,114 @@
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
       <c r="O2" s="43"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="86" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="43"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="92" t="s">
+      <c r="T4" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="125"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="85" t="s">
+      <c r="A5" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="96">
+      <c r="T5" s="127">
         <v>330212</v>
       </c>
-      <c r="U5" s="97"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="129"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
@@ -1694,10 +1698,10 @@
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
       <c r="P6" s="50"/>
-      <c r="Q6" s="85" t="s">
+      <c r="Q6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="85"/>
+      <c r="R6" s="107"/>
       <c r="S6" s="44"/>
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
@@ -1730,38 +1734,38 @@
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="85" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
       <c r="S8" s="44"/>
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="58"/>
@@ -1778,48 +1782,48 @@
       <c r="N9" s="60"/>
       <c r="O9" s="60"/>
       <c r="P9" s="44"/>
-      <c r="Q9" s="85" t="s">
+      <c r="Q9" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="85"/>
+      <c r="R9" s="107"/>
       <c r="S9" s="44"/>
       <c r="T9" s="54"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="50"/>
-      <c r="Q10" s="85" t="s">
+      <c r="Q10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="85"/>
+      <c r="R10" s="107"/>
       <c r="S10" s="44"/>
       <c r="T10" s="61"/>
       <c r="U10" s="47"/>
       <c r="V10" s="62"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
       <c r="E11" s="58"/>
@@ -1836,34 +1840,34 @@
       <c r="N11" s="60"/>
       <c r="O11" s="60"/>
       <c r="P11" s="44"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="44"/>
       <c r="T11" s="63"/>
       <c r="U11" s="44"/>
       <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="50"/>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="85"/>
+      <c r="R12" s="107"/>
       <c r="S12" s="44"/>
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
@@ -1888,42 +1892,42 @@
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="91" t="s">
+      <c r="Q13" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="89"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="123"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="87"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
       <c r="P14" s="67"/>
-      <c r="Q14" s="89" t="s">
+      <c r="Q14" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="89"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="123"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
@@ -1939,18 +1943,18 @@
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
       <c r="K15" s="58"/>
-      <c r="L15" s="89" t="s">
+      <c r="L15" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91" t="s">
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="54"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
@@ -1962,25 +1966,25 @@
       <c r="D16" s="66"/>
       <c r="E16" s="44"/>
       <c r="F16" s="67"/>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="102"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="70"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
-      <c r="Q16" s="104" t="s">
+      <c r="Q16" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="105"/>
-      <c r="S16" s="106"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="114"/>
       <c r="T16" s="54"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
@@ -1989,25 +1993,25 @@
       <c r="A17" s="65"/>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="109"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="96"/>
       <c r="K17" s="71"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
-      <c r="P17" s="85" t="s">
+      <c r="P17" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
       <c r="S17" s="72"/>
       <c r="T17" s="54"/>
       <c r="U17" s="55"/>
@@ -2038,58 +2042,58 @@
       <c r="V18" s="74"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="107" t="s">
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="107" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="107" t="s">
+      <c r="I19" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="107" t="s">
+      <c r="J19" s="96"/>
+      <c r="K19" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="107" t="s">
+      <c r="L19" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="112"/>
-      <c r="N19" s="124" t="s">
+      <c r="M19" s="100"/>
+      <c r="N19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="125"/>
-      <c r="P19" s="107" t="s">
+      <c r="O19" s="93"/>
+      <c r="P19" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="107" t="s">
+      <c r="Q19" s="96"/>
+      <c r="R19" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="129" t="s">
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
-      <c r="B20" s="107" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="75" t="s">
         <v>33</v>
       </c>
@@ -2099,39 +2103,39 @@
       <c r="G20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="107"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="76" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="108"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="107" t="s">
+      <c r="K20" s="91"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="109"/>
-      <c r="T20" s="107" t="s">
+      <c r="S20" s="96"/>
+      <c r="T20" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="112"/>
-      <c r="V20" s="130"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
         <v>1</v>
       </c>
-      <c r="B21" s="115">
+      <c r="B21" s="101">
         <v>2</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="75">
         <v>3</v>
       </c>
@@ -2153,69 +2157,32 @@
       <c r="K21" s="76">
         <v>9</v>
       </c>
-      <c r="L21" s="117">
+      <c r="L21" s="88">
         <v>10</v>
       </c>
-      <c r="M21" s="118"/>
-      <c r="N21" s="119">
+      <c r="M21" s="89"/>
+      <c r="N21" s="103">
         <v>11</v>
       </c>
-      <c r="O21" s="120"/>
-      <c r="P21" s="117">
+      <c r="O21" s="104"/>
+      <c r="P21" s="88">
         <v>12</v>
       </c>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="117">
+      <c r="Q21" s="89"/>
+      <c r="R21" s="88">
         <v>13</v>
       </c>
-      <c r="S21" s="118"/>
-      <c r="T21" s="117">
+      <c r="S21" s="89"/>
+      <c r="T21" s="88">
         <v>14</v>
       </c>
-      <c r="U21" s="118"/>
+      <c r="U21" s="89"/>
       <c r="V21" s="77">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2232,6 +2199,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2244,7 +2248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="122" workbookViewId="0">
@@ -2254,12 +2258,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2271,10 +2275,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="148" t="s">
+      <c r="P1" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="148"/>
+      <c r="Q1" s="133"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2299,19 +2303,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="132" t="s">
+      <c r="P2" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2342,10 +2346,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="146"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2370,10 +2374,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="146"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2400,8 +2404,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2420,27 +2424,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2458,10 +2462,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="135" t="s">
+      <c r="K8" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="134"/>
+      <c r="L8" s="147"/>
       <c r="M8" s="32" t="s">
         <v>63</v>
       </c>
@@ -2471,22 +2475,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -2504,36 +2508,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141" t="s">
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="134"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="147"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="133" t="s">
+      <c r="P10" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2600,20 +2604,20 @@
       <c r="D13" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141" t="s">
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="138" t="s">
+      <c r="K13" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2645,19 +2649,19 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="133" t="s">
+      <c r="P14" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133" t="s">
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133" t="s">
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="133"/>
+      <c r="V14" s="149"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="136" t="s">
@@ -2670,16 +2674,16 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2711,19 +2715,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="133" t="s">
+      <c r="P16" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133" t="s">
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133" t="s">
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="133"/>
+      <c r="V16" s="149"/>
     </row>
     <row r="17" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2747,21 +2751,28 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2775,20 +2786,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC618A-47C3-4ABB-8B53-210B04BBB604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AD129-946B-4861-8231-1B5245A42E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>Отпуск груза произвел</t>
-  </si>
-  <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал № 7701 Банка ВТБ (ПАО)  г. Москва к/с 30101810345250000745 БИК 044525745</t>
   </si>
   <si>
     <t>Уведомление! Право денежного требования по оплате нижеуказанных поставленных товаров (оказанных услуг) уступлено Поставщиком ПАО "МОСКОВСКИЙ КРЕДИТНЫЙ БАНК", оплата должна производиться исключительно по следующим реквизитам : ПАО "Московский кредитный банк" № 47401810100000003292, к/с 30101810745250000659  в Главном управлении Центрального банка Российской Федерации по Центральному федеральному округу г.Москва, БИК 044525659, ИНН 7734202860, КПП 770801001</t>
@@ -1035,6 +1032,114 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,18 +1149,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,9 +1161,6 @@
     <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1080,98 +1170,50 @@
     <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1182,53 +1224,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,9 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1570,114 +1565,114 @@
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
+      <c r="A2" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
       <c r="O2" s="43"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="119" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="43"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="123" t="s">
+      <c r="T4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="124"/>
-      <c r="V4" s="125"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="107" t="s">
+      <c r="A5" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="127">
+      <c r="T5" s="96">
         <v>330212</v>
       </c>
-      <c r="U5" s="128"/>
-      <c r="V5" s="129"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
@@ -1698,10 +1693,10 @@
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
       <c r="P6" s="50"/>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="107"/>
+      <c r="R6" s="85"/>
       <c r="S6" s="44"/>
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
@@ -1734,38 +1729,38 @@
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="107" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="44"/>
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="58"/>
@@ -1782,48 +1777,48 @@
       <c r="N9" s="60"/>
       <c r="O9" s="60"/>
       <c r="P9" s="44"/>
-      <c r="Q9" s="107" t="s">
+      <c r="Q9" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="107"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="44"/>
       <c r="T9" s="54"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="50"/>
-      <c r="Q10" s="107" t="s">
+      <c r="Q10" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="107"/>
+      <c r="R10" s="85"/>
       <c r="S10" s="44"/>
       <c r="T10" s="61"/>
       <c r="U10" s="47"/>
       <c r="V10" s="62"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="117"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
       <c r="E11" s="58"/>
@@ -1840,34 +1835,34 @@
       <c r="N11" s="60"/>
       <c r="O11" s="60"/>
       <c r="P11" s="44"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
       <c r="S11" s="44"/>
       <c r="T11" s="63"/>
       <c r="U11" s="44"/>
       <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="50"/>
-      <c r="Q12" s="107" t="s">
+      <c r="Q12" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="107"/>
+      <c r="R12" s="85"/>
       <c r="S12" s="44"/>
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
@@ -1892,42 +1887,42 @@
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="115" t="s">
+      <c r="Q13" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="116"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="87"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="123"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="67"/>
-      <c r="Q14" s="116" t="s">
+      <c r="Q14" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="116"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="87"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="123"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
@@ -1943,18 +1938,18 @@
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
       <c r="K15" s="58"/>
-      <c r="L15" s="116" t="s">
+      <c r="L15" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="115" t="s">
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
       <c r="T15" s="54"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
@@ -1966,25 +1961,25 @@
       <c r="D16" s="66"/>
       <c r="E16" s="44"/>
       <c r="F16" s="67"/>
-      <c r="G16" s="110" t="s">
+      <c r="G16" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="110" t="s">
+      <c r="H16" s="102"/>
+      <c r="I16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="111"/>
+      <c r="J16" s="102"/>
       <c r="K16" s="70"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
-      <c r="Q16" s="112" t="s">
+      <c r="Q16" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="113"/>
-      <c r="S16" s="114"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="106"/>
       <c r="T16" s="54"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
@@ -1993,25 +1988,25 @@
       <c r="A17" s="65"/>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="96"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="109"/>
       <c r="K17" s="71"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
-      <c r="P17" s="107" t="s">
+      <c r="P17" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
       <c r="S17" s="72"/>
       <c r="T17" s="54"/>
       <c r="U17" s="55"/>
@@ -2042,58 +2037,58 @@
       <c r="V18" s="74"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="90" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="90" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="90" t="s">
+      <c r="I19" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="90" t="s">
+      <c r="J19" s="109"/>
+      <c r="K19" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="90" t="s">
+      <c r="L19" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="92" t="s">
+      <c r="M19" s="112"/>
+      <c r="N19" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="93"/>
-      <c r="P19" s="90" t="s">
+      <c r="O19" s="125"/>
+      <c r="P19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="90" t="s">
+      <c r="Q19" s="109"/>
+      <c r="R19" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="98" t="s">
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="129" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="90" t="s">
+      <c r="A20" s="108"/>
+      <c r="B20" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="75" t="s">
         <v>33</v>
       </c>
@@ -2103,39 +2098,39 @@
       <c r="G20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="90"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="76" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="91"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="90" t="s">
+      <c r="K20" s="108"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="96"/>
-      <c r="T20" s="90" t="s">
+      <c r="S20" s="109"/>
+      <c r="T20" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="100"/>
-      <c r="V20" s="99"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="130"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
         <v>1</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="115">
         <v>2</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="75">
         <v>3</v>
       </c>
@@ -2157,32 +2152,69 @@
       <c r="K21" s="76">
         <v>9</v>
       </c>
-      <c r="L21" s="88">
+      <c r="L21" s="117">
         <v>10</v>
       </c>
-      <c r="M21" s="89"/>
-      <c r="N21" s="103">
+      <c r="M21" s="118"/>
+      <c r="N21" s="119">
         <v>11</v>
       </c>
-      <c r="O21" s="104"/>
-      <c r="P21" s="88">
+      <c r="O21" s="120"/>
+      <c r="P21" s="117">
         <v>12</v>
       </c>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="88">
+      <c r="Q21" s="118"/>
+      <c r="R21" s="117">
         <v>13</v>
       </c>
-      <c r="S21" s="89"/>
-      <c r="T21" s="88">
+      <c r="S21" s="118"/>
+      <c r="T21" s="117">
         <v>14</v>
       </c>
-      <c r="U21" s="89"/>
+      <c r="U21" s="118"/>
       <c r="V21" s="77">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2199,43 +2231,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2258,12 +2253,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2275,10 +2270,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="133" t="s">
+      <c r="P1" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="133"/>
+      <c r="Q1" s="148"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2303,19 +2298,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2346,10 +2341,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="131"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2374,10 +2369,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="131"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2404,8 +2399,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2424,27 +2419,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
       <c r="G7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2462,10 +2457,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="146" t="s">
+      <c r="K8" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="147"/>
+      <c r="L8" s="134"/>
       <c r="M8" s="32" t="s">
         <v>63</v>
       </c>
@@ -2475,22 +2470,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -2508,36 +2503,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138" t="s">
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="147"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="134"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="149" t="s">
+      <c r="P10" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="149"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2574,7 +2569,7 @@
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="81"/>
       <c r="F12" s="82"/>
@@ -2602,22 +2597,22 @@
       <c r="B13" s="136"/>
       <c r="C13" s="136"/>
       <c r="D13" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
+        <v>69</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="144" t="s">
+      <c r="K13" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2649,19 +2644,19 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="149" t="s">
+      <c r="P14" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149" t="s">
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149" t="s">
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="149"/>
+      <c r="V14" s="133"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="136" t="s">
@@ -2670,20 +2665,20 @@
       <c r="B15" s="136"/>
       <c r="C15" s="136"/>
       <c r="D15" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="144" t="s">
+      <c r="K15" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2715,19 +2710,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="149" t="s">
+      <c r="P16" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149" t="s">
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149" t="s">
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="149"/>
+      <c r="V16" s="133"/>
     </row>
     <row r="17" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2751,28 +2746,21 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2786,13 +2774,20 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AD129-946B-4861-8231-1B5245A42E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEA347-F64C-47BA-B44F-94F236177AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
     <t>дог. №2 от 01.03.2019</t>
   </si>
   <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810617030008128 в Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
   </si>
 </sst>
 </file>
@@ -1032,9 +1032,108 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,13 +1143,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,158 +1167,65 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,7 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1565,114 +1567,114 @@
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
       <c r="O2" s="43"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="86" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="43"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="92" t="s">
+      <c r="T4" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="125"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="85" t="s">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="96">
+      <c r="T5" s="127">
         <v>330212</v>
       </c>
-      <c r="U5" s="97"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="129"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
@@ -1693,10 +1695,10 @@
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
       <c r="P6" s="50"/>
-      <c r="Q6" s="85" t="s">
+      <c r="Q6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="85"/>
+      <c r="R6" s="107"/>
       <c r="S6" s="44"/>
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
@@ -1729,38 +1731,38 @@
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="85" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
       <c r="S8" s="44"/>
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="58"/>
@@ -1777,48 +1779,48 @@
       <c r="N9" s="60"/>
       <c r="O9" s="60"/>
       <c r="P9" s="44"/>
-      <c r="Q9" s="85" t="s">
+      <c r="Q9" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="85"/>
+      <c r="R9" s="107"/>
       <c r="S9" s="44"/>
       <c r="T9" s="54"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="50"/>
-      <c r="Q10" s="85" t="s">
+      <c r="Q10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="85"/>
+      <c r="R10" s="107"/>
       <c r="S10" s="44"/>
       <c r="T10" s="61"/>
       <c r="U10" s="47"/>
       <c r="V10" s="62"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
       <c r="E11" s="58"/>
@@ -1835,34 +1837,34 @@
       <c r="N11" s="60"/>
       <c r="O11" s="60"/>
       <c r="P11" s="44"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="44"/>
       <c r="T11" s="63"/>
       <c r="U11" s="44"/>
       <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="50"/>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="85"/>
+      <c r="R12" s="107"/>
       <c r="S12" s="44"/>
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
@@ -1887,42 +1889,42 @@
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="91" t="s">
+      <c r="Q13" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="89"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="123"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="87"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
       <c r="P14" s="67"/>
-      <c r="Q14" s="89" t="s">
+      <c r="Q14" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="89"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="123"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
@@ -1938,18 +1940,18 @@
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
       <c r="K15" s="58"/>
-      <c r="L15" s="89" t="s">
+      <c r="L15" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91" t="s">
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="54"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
@@ -1961,25 +1963,25 @@
       <c r="D16" s="66"/>
       <c r="E16" s="44"/>
       <c r="F16" s="67"/>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="102"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="70"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
-      <c r="Q16" s="104" t="s">
+      <c r="Q16" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="105"/>
-      <c r="S16" s="106"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="114"/>
       <c r="T16" s="54"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
@@ -1988,25 +1990,25 @@
       <c r="A17" s="65"/>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="109"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="96"/>
       <c r="K17" s="71"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
-      <c r="P17" s="85" t="s">
+      <c r="P17" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
       <c r="S17" s="72"/>
       <c r="T17" s="54"/>
       <c r="U17" s="55"/>
@@ -2037,58 +2039,58 @@
       <c r="V18" s="74"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="107" t="s">
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="107" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="107" t="s">
+      <c r="I19" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="107" t="s">
+      <c r="J19" s="96"/>
+      <c r="K19" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="107" t="s">
+      <c r="L19" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="112"/>
-      <c r="N19" s="124" t="s">
+      <c r="M19" s="100"/>
+      <c r="N19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="125"/>
-      <c r="P19" s="107" t="s">
+      <c r="O19" s="93"/>
+      <c r="P19" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="107" t="s">
+      <c r="Q19" s="96"/>
+      <c r="R19" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="129" t="s">
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
-      <c r="B20" s="107" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="75" t="s">
         <v>33</v>
       </c>
@@ -2098,39 +2100,39 @@
       <c r="G20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="107"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="76" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="108"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="107" t="s">
+      <c r="K20" s="91"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="109"/>
-      <c r="T20" s="107" t="s">
+      <c r="S20" s="96"/>
+      <c r="T20" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="112"/>
-      <c r="V20" s="130"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
         <v>1</v>
       </c>
-      <c r="B21" s="115">
+      <c r="B21" s="101">
         <v>2</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="75">
         <v>3</v>
       </c>
@@ -2152,69 +2154,32 @@
       <c r="K21" s="76">
         <v>9</v>
       </c>
-      <c r="L21" s="117">
+      <c r="L21" s="88">
         <v>10</v>
       </c>
-      <c r="M21" s="118"/>
-      <c r="N21" s="119">
+      <c r="M21" s="89"/>
+      <c r="N21" s="103">
         <v>11</v>
       </c>
-      <c r="O21" s="120"/>
-      <c r="P21" s="117">
+      <c r="O21" s="104"/>
+      <c r="P21" s="88">
         <v>12</v>
       </c>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="117">
+      <c r="Q21" s="89"/>
+      <c r="R21" s="88">
         <v>13</v>
       </c>
-      <c r="S21" s="118"/>
-      <c r="T21" s="117">
+      <c r="S21" s="89"/>
+      <c r="T21" s="88">
         <v>14</v>
       </c>
-      <c r="U21" s="118"/>
+      <c r="U21" s="89"/>
       <c r="V21" s="77">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2231,6 +2196,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2253,12 +2255,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2270,10 +2272,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="148" t="s">
+      <c r="P1" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="148"/>
+      <c r="Q1" s="133"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2298,19 +2300,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="132" t="s">
+      <c r="P2" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2341,10 +2343,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="146"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2369,10 +2371,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="146"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2399,8 +2401,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2419,27 +2421,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2457,10 +2459,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="135" t="s">
+      <c r="K8" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="134"/>
+      <c r="L8" s="147"/>
       <c r="M8" s="32" t="s">
         <v>63</v>
       </c>
@@ -2470,22 +2472,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -2503,36 +2505,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141" t="s">
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="134"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="147"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="133" t="s">
+      <c r="P10" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2599,20 +2601,20 @@
       <c r="D13" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141" t="s">
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="138" t="s">
+      <c r="K13" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2644,19 +2646,19 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="133" t="s">
+      <c r="P14" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133" t="s">
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133" t="s">
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="133"/>
+      <c r="V14" s="149"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="136" t="s">
@@ -2669,16 +2671,16 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2710,19 +2712,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="133" t="s">
+      <c r="P16" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133" t="s">
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133" t="s">
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="133"/>
+      <c r="V16" s="149"/>
     </row>
     <row r="17" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2746,21 +2748,28 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -2774,20 +2783,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Накладная 2.xlsx
+++ b/templates/order/Накладная 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEA347-F64C-47BA-B44F-94F236177AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D7FBC-3A5B-418F-A169-051FF2CCEA68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Низ!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$19:$21</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -255,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,14 +379,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF080000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF080000"/>
       <name val="Arial"/>
@@ -780,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -912,43 +904,43 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,10 +952,10 @@
     <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,16 +964,16 @@
     <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,7 +982,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,10 +994,10 @@
     <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,13 +1024,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,37 +1039,37 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,19 +1084,19 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,37 +1105,31 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,19 +1141,16 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1226,6 +1209,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,9 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1567,22 +1554,22 @@
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
       <c r="O2" s="43"/>
       <c r="P2" s="44"/>
       <c r="Q2" s="119" t="s">
@@ -1595,20 +1582,20 @@
       <c r="V2" s="119"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
       <c r="O3" s="119" t="s">
         <v>1</v>
       </c>
@@ -1620,61 +1607,61 @@
       <c r="U3" s="119"/>
       <c r="V3" s="119"/>
     </row>
-    <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
+    <row r="4" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
       <c r="O4" s="43"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="123" t="s">
+      <c r="T4" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="124"/>
-      <c r="V4" s="125"/>
-    </row>
-    <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="U4" s="122"/>
+      <c r="V4" s="123"/>
+    </row>
+    <row r="5" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
       <c r="P5" s="107" t="s">
         <v>3</v>
       </c>
       <c r="Q5" s="107"/>
       <c r="R5" s="107"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="127">
+      <c r="T5" s="124">
         <v>330212</v>
       </c>
-      <c r="U5" s="128"/>
-      <c r="V5" s="129"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="126"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
@@ -1903,19 +1890,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="117"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="67"/>
       <c r="Q14" s="116" t="s">
         <v>14</v>
@@ -1946,7 +1933,7 @@
       <c r="M15" s="116"/>
       <c r="N15" s="116"/>
       <c r="O15" s="116"/>
-      <c r="P15" s="122"/>
+      <c r="P15" s="120"/>
       <c r="Q15" s="115" t="s">
         <v>12</v>
       </c>
@@ -2255,12 +2242,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2272,10 +2259,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="133" t="s">
+      <c r="P1" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="133"/>
+      <c r="Q1" s="130"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2300,19 +2287,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2343,10 +2330,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="131"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2371,10 +2358,10 @@
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="131"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2401,8 +2388,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2421,27 +2408,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
       <c r="R7" s="18"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -2459,10 +2446,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="146" t="s">
+      <c r="K8" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="147"/>
+      <c r="L8" s="144"/>
       <c r="M8" s="32" t="s">
         <v>63</v>
       </c>
@@ -2472,22 +2459,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -2505,36 +2492,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138" t="s">
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="147"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="144"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="149" t="s">
+      <c r="P10" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="149"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="146"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2593,28 +2580,28 @@
       <c r="V12" s="80"/>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138" t="s">
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="144" t="s">
+      <c r="K13" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
       <c r="O13" s="18"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -2646,41 +2633,41 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="149" t="s">
+      <c r="P14" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149" t="s">
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149" t="s">
+      <c r="S14" s="146"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="149"/>
+      <c r="V14" s="146"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="144" t="s">
+      <c r="K15" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2712,19 +2699,19 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="149" t="s">
+      <c r="P16" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149" t="s">
+      <c r="Q16" s="146"/>
+      <c r="R16" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149" t="s">
+      <c r="S16" s="146"/>
+      <c r="T16" s="146"/>
+      <c r="U16" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="149"/>
+      <c r="V16" s="146"/>
     </row>
     <row r="17" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2748,11 +2735,11 @@
       <c r="O17" s="18"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="34">
